--- a/Ergebnisse.xlsx
+++ b/Ergebnisse.xlsx
@@ -30,31 +30,31 @@
     <t>Kernenergie</t>
   </si>
   <si>
-    <t>Braunkohle (+)</t>
-  </si>
-  <si>
-    <t>Braunkohle (0)</t>
-  </si>
-  <si>
-    <t>Braunkohle (-)</t>
-  </si>
-  <si>
-    <t>Steinkohle (+)</t>
-  </si>
-  <si>
-    <t>Steinkohle (0)</t>
-  </si>
-  <si>
-    <t>Steinkohle (-)</t>
-  </si>
-  <si>
-    <t>Erdgas (+)</t>
-  </si>
-  <si>
-    <t>Erdgas (0)</t>
-  </si>
-  <si>
-    <t>Erdgas (-)</t>
+    <t>Braunkohle_+</t>
+  </si>
+  <si>
+    <t>Braunkohle_0</t>
+  </si>
+  <si>
+    <t>Braunkohle_-</t>
+  </si>
+  <si>
+    <t>Steinkohle_+</t>
+  </si>
+  <si>
+    <t>Steinkohle_0</t>
+  </si>
+  <si>
+    <t>Steinkohle_-</t>
+  </si>
+  <si>
+    <t>Erdgas_+</t>
+  </si>
+  <si>
+    <t>Erdgas_0</t>
+  </si>
+  <si>
+    <t>Erdgas_-</t>
   </si>
 </sst>
 </file>

--- a/Ergebnisse.xlsx
+++ b/Ergebnisse.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\OneDrive\Dokumente\SENCE\Semester 2_Projekte\Projekt 1_EWI_03_2022\EWI Einstiegsmodell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{7C4D73D8-FE4E-4094-BDB5-0EA0093ED050}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="383" yWindow="458" windowWidth="28043" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="DE" sheetId="1" r:id="rId1"/>
-    <sheet name="FR" r:id="rId5" sheetId="2"/>
-    <sheet name="NL" r:id="rId6" sheetId="3"/>
-    <sheet name="Strompreise" r:id="rId7" sheetId="4"/>
+    <sheet name="FR" sheetId="2" r:id="rId2"/>
+    <sheet name="NL" sheetId="3" r:id="rId3"/>
+    <sheet name="Strompreise" sheetId="4" r:id="rId4"/>
+    <sheet name="Pumpspeicher" sheetId="5" r:id="rId5"/>
+    <sheet name="Speicherstand" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="24">
   <si>
     <t>Kernenergie</t>
   </si>
@@ -80,14 +82,43 @@
   <si>
     <t>NL</t>
   </si>
+  <si>
+    <t>Pumpspeicher</t>
+  </si>
+  <si>
+    <t>Pumpspeicher_Ausspeicherung</t>
+  </si>
+  <si>
+    <t>Pumpspeicher_Einspeicherung</t>
+  </si>
+  <si>
+    <t>Nachfrage</t>
+  </si>
+  <si>
+    <t>Export NL</t>
+  </si>
+  <si>
+    <t>Speicherstand Ende Std</t>
+  </si>
+  <si>
+    <t>Speicherstand anfang Std</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -114,11 +145,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -134,7 +167,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -430,13 +463,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="10.625" hidden="1" customWidth="1"/>
+    <col min="3" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5625" customWidth="1"/>
+    <col min="19" max="19" width="18.125" customWidth="1"/>
+    <col min="20" max="20" width="10.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,1277 +530,1756 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2">
-        <v>7695.0</v>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A2" s="1">
+        <v>6685.1927670000005</v>
       </c>
       <c r="B2">
-        <v>3935.1927670000005</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0</v>
-      </c>
-      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
         <v>26064.807233</v>
       </c>
-      <c r="L2">
-        <v>0.0</v>
-      </c>
-      <c r="M2">
-        <v>4370.0</v>
-      </c>
-      <c r="N2">
-        <v>1691.0</v>
-      </c>
-      <c r="O2">
-        <v>0.0</v>
-      </c>
-      <c r="P2">
-        <v>1800.0</v>
-      </c>
-      <c r="Q2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3">
-        <v>7695.0</v>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>4370</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1691</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>6565</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>18850</v>
+      </c>
+      <c r="U2">
+        <v>42976</v>
+      </c>
+      <c r="V2">
+        <v>2400</v>
+      </c>
+      <c r="W2" s="1">
+        <f>T2+S2-R2</f>
+        <v>12285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A3" s="1">
+        <v>3273.4019660000013</v>
       </c>
       <c r="B3">
-        <v>523.4019660000013</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0</v>
-      </c>
-      <c r="K3">
-        <v>28062.598034</v>
-      </c>
-      <c r="L3">
-        <v>0.0</v>
-      </c>
-      <c r="M3">
-        <v>4370.0</v>
-      </c>
-      <c r="N3">
-        <v>1691.0</v>
-      </c>
-      <c r="O3">
-        <v>0.0</v>
-      </c>
-      <c r="P3">
-        <v>1800.0</v>
-      </c>
-      <c r="Q3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4">
-        <v>7695.0</v>
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>28062.598033999999</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4370</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1691</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>6565</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>12285</v>
+      </c>
+      <c r="U3">
+        <v>41562</v>
+      </c>
+      <c r="V3">
+        <v>2400</v>
+      </c>
+      <c r="W3" s="1">
+        <f t="shared" ref="W3:W25" si="0">T3+S3-R3</f>
+        <v>5720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A4" s="1">
+        <v>7695</v>
       </c>
       <c r="B4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0</v>
-      </c>
-      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
         <v>28404.014465999997</v>
       </c>
-      <c r="L4">
-        <v>0.0</v>
-      </c>
-      <c r="M4">
-        <v>4370.0</v>
-      </c>
-      <c r="N4">
-        <v>1691.0</v>
-      </c>
-      <c r="O4">
-        <v>0.0</v>
-      </c>
-      <c r="P4">
-        <v>377.7617044444414</v>
-      </c>
-      <c r="Q4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5">
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>4370</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1691</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>339.9855340000031</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>5720</v>
+      </c>
+      <c r="U4">
+        <v>40100</v>
+      </c>
+      <c r="V4">
+        <v>2400</v>
+      </c>
+      <c r="W4" s="1">
+        <f t="shared" si="0"/>
+        <v>5380.0144659999969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>29936.442767</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>4370</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1691</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
         <v>5285.5572329999995</v>
       </c>
-      <c r="B5">
-        <v>0.0</v>
-      </c>
-      <c r="C5">
-        <v>0.0</v>
-      </c>
-      <c r="D5">
-        <v>0.0</v>
-      </c>
-      <c r="E5">
-        <v>0.0</v>
-      </c>
-      <c r="F5">
-        <v>0.0</v>
-      </c>
-      <c r="G5">
-        <v>0.0</v>
-      </c>
-      <c r="H5">
-        <v>0.0</v>
-      </c>
-      <c r="I5">
-        <v>0.0</v>
-      </c>
-      <c r="J5">
-        <v>0.0</v>
-      </c>
-      <c r="K5">
-        <v>29936.442767</v>
-      </c>
-      <c r="L5">
-        <v>0.0</v>
-      </c>
-      <c r="M5">
-        <v>4370.0</v>
-      </c>
-      <c r="N5">
-        <v>1691.0</v>
-      </c>
-      <c r="O5">
-        <v>0.0</v>
-      </c>
-      <c r="P5">
-        <v>0.0</v>
-      </c>
-      <c r="Q5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6">
-        <v>3031.607232999999</v>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>5380.0144659999969</v>
+      </c>
+      <c r="U5">
+        <v>38883</v>
+      </c>
+      <c r="V5">
+        <v>2400</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" si="0"/>
+        <v>94.457232999997359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A6" s="1">
+        <v>7695</v>
       </c>
       <c r="B6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0</v>
-      </c>
-      <c r="K6">
-        <v>32113.392767</v>
-      </c>
-      <c r="L6">
-        <v>0.0</v>
-      </c>
-      <c r="M6">
-        <v>4370.0</v>
-      </c>
-      <c r="N6">
-        <v>1691.0</v>
-      </c>
-      <c r="O6">
-        <v>0.0</v>
-      </c>
-      <c r="P6">
-        <v>0.0</v>
-      </c>
-      <c r="Q6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7">
-        <v>1344.7716989999972</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>32113.392767000001</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4370</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1691</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>4663.3927670000012</v>
+      </c>
+      <c r="T6" s="1">
+        <v>94.457232999997359</v>
+      </c>
+      <c r="U6">
+        <v>38806</v>
+      </c>
+      <c r="V6">
+        <v>2400</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" si="0"/>
+        <v>4757.8499999999985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A7" s="1">
+        <v>7695</v>
       </c>
       <c r="B7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0</v>
-      </c>
-      <c r="K7">
-        <v>33587.228301</v>
-      </c>
-      <c r="L7">
-        <v>0.0</v>
-      </c>
-      <c r="M7">
-        <v>4370.0</v>
-      </c>
-      <c r="N7">
-        <v>1691.0</v>
-      </c>
-      <c r="O7">
-        <v>0.0</v>
-      </c>
-      <c r="P7">
-        <v>0.0</v>
-      </c>
-      <c r="Q7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>33587.228301000003</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4370</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1691</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>6350.2283010000028</v>
+      </c>
+      <c r="T7" s="1">
+        <v>4757.8499999999985</v>
+      </c>
+      <c r="U7">
+        <v>38593</v>
+      </c>
+      <c r="V7">
+        <v>2400</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="0"/>
+        <v>11108.078301000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A8" s="1">
+        <v>6095.6144659999991</v>
       </c>
       <c r="B8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0</v>
-      </c>
-      <c r="K8">
-        <v>34948.385534</v>
-      </c>
-      <c r="L8">
-        <v>0.0</v>
-      </c>
-      <c r="M8">
-        <v>4370.0</v>
-      </c>
-      <c r="N8">
-        <v>1691.0</v>
-      </c>
-      <c r="O8">
-        <v>0.0</v>
-      </c>
-      <c r="P8">
-        <v>0.0</v>
-      </c>
-      <c r="Q8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>34948.385534000001</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4370</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1691</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>6565</v>
+      </c>
+      <c r="T8" s="1">
+        <v>11108.078301000001</v>
+      </c>
+      <c r="U8">
+        <v>38140</v>
+      </c>
+      <c r="V8">
+        <v>2400</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="0"/>
+        <v>17673.078301000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A9" s="1">
+        <v>5645.1966990000001</v>
       </c>
       <c r="B9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0</v>
-      </c>
-      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
         <v>36000.803301</v>
       </c>
-      <c r="L9">
-        <v>0.0</v>
-      </c>
-      <c r="M9">
-        <v>4370.0</v>
-      </c>
-      <c r="N9">
-        <v>1691.0</v>
-      </c>
-      <c r="O9">
-        <v>0.0</v>
-      </c>
-      <c r="P9">
-        <v>0.0</v>
-      </c>
-      <c r="Q9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10">
-        <v>0.0</v>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4370</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1691</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>6565</v>
+      </c>
+      <c r="T9" s="1">
+        <v>17673.078301000001</v>
+      </c>
+      <c r="U9">
+        <v>38742</v>
+      </c>
+      <c r="V9">
+        <v>2400</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="0"/>
+        <v>24238.078301000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A10" s="1">
+        <v>5261.6269660000034</v>
       </c>
       <c r="B10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0</v>
-      </c>
-      <c r="K10">
-        <v>36786.173034</v>
-      </c>
-      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>36786.173033999999</v>
+      </c>
+      <c r="L10" s="1">
         <v>112.2</v>
       </c>
-      <c r="M10">
-        <v>4370.0</v>
-      </c>
-      <c r="N10">
-        <v>1691.0</v>
-      </c>
-      <c r="O10">
-        <v>0.0</v>
-      </c>
-      <c r="P10">
-        <v>0.0</v>
-      </c>
-      <c r="Q10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11">
-        <v>1211.269505999997</v>
+      <c r="M10" s="1">
+        <v>4370</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1691</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>6565</v>
+      </c>
+      <c r="T10" s="1">
+        <v>24238.078301000001</v>
+      </c>
+      <c r="U10">
+        <v>39256</v>
+      </c>
+      <c r="V10">
+        <v>2400</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" si="0"/>
+        <v>30803.078301000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A11" s="1">
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0</v>
-      </c>
-      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
         <v>36367.009199</v>
       </c>
-      <c r="L11">
-        <v>778.7212949999999</v>
-      </c>
-      <c r="M11">
-        <v>4370.0</v>
-      </c>
-      <c r="N11">
-        <v>1691.0</v>
-      </c>
-      <c r="O11">
-        <v>0.0</v>
-      </c>
-      <c r="P11">
-        <v>0.0</v>
-      </c>
-      <c r="Q11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12">
-        <v>1334.396501999996</v>
+      <c r="L11" s="1">
+        <v>778.72129499999994</v>
+      </c>
+      <c r="M11" s="1">
+        <v>4370</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1691</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1211.2695059999969</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>30803.078301000001</v>
+      </c>
+      <c r="U11">
+        <v>42018</v>
+      </c>
+      <c r="V11">
+        <v>2400</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" si="0"/>
+        <v>29591.808795000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A12" s="1">
+        <v>7695</v>
       </c>
       <c r="B12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0</v>
-      </c>
-      <c r="K12">
-        <v>37709.010534</v>
-      </c>
-      <c r="L12">
-        <v>1828.592964</v>
-      </c>
-      <c r="M12">
-        <v>4370.0</v>
-      </c>
-      <c r="N12">
-        <v>1691.0</v>
-      </c>
-      <c r="O12">
-        <v>0.0</v>
-      </c>
-      <c r="P12">
-        <v>0.0</v>
-      </c>
-      <c r="Q12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13">
-        <v>844.880670999999</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>37709.010534000001</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1828.5929639999999</v>
+      </c>
+      <c r="M12" s="1">
+        <v>4370</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1691</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>6360.603498000004</v>
+      </c>
+      <c r="T12" s="1">
+        <v>29591.808795000004</v>
+      </c>
+      <c r="U12">
+        <v>44533</v>
+      </c>
+      <c r="V12">
+        <v>2400</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" si="0"/>
+        <v>35952.412293000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A13" s="1">
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0</v>
-      </c>
-      <c r="K13">
-        <v>40240.898034</v>
-      </c>
-      <c r="L13">
-        <v>2742.221295</v>
-      </c>
-      <c r="M13">
-        <v>4370.0</v>
-      </c>
-      <c r="N13">
-        <v>1691.0</v>
-      </c>
-      <c r="O13">
-        <v>0.0</v>
-      </c>
-      <c r="P13">
-        <v>0.0</v>
-      </c>
-      <c r="Q13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14">
-        <v>2167.078321000001</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>40240.898033999998</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2742.2212949999998</v>
+      </c>
+      <c r="M13" s="1">
+        <v>4370</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1691</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>844.88067099999898</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>35952.412293000009</v>
+      </c>
+      <c r="U13">
+        <v>47489</v>
+      </c>
+      <c r="V13">
+        <v>2400</v>
+      </c>
+      <c r="W13" s="1">
+        <f t="shared" si="0"/>
+        <v>35107.53162200001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A14" s="1">
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0</v>
-      </c>
-      <c r="K14">
-        <v>40451.607233</v>
-      </c>
-      <c r="L14">
-        <v>2981.314446</v>
-      </c>
-      <c r="M14">
-        <v>4370.0</v>
-      </c>
-      <c r="N14">
-        <v>1691.0</v>
-      </c>
-      <c r="O14">
-        <v>0.0</v>
-      </c>
-      <c r="P14">
-        <v>0.0</v>
-      </c>
-      <c r="Q14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>40451.607233000002</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2981.3144459999999</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4370</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1691</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>2167.0783210000009</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>35107.53162200001</v>
+      </c>
+      <c r="U14">
+        <v>49261</v>
+      </c>
+      <c r="V14">
+        <v>2400</v>
+      </c>
+      <c r="W14" s="1">
+        <f t="shared" si="0"/>
+        <v>32940.453301000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>41076.973034000002</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2679.4425900000001</v>
+      </c>
+      <c r="M15" s="1">
+        <v>4370</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1691</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
         <v>1414.5843759999989</v>
       </c>
-      <c r="B15">
-        <v>0.0</v>
-      </c>
-      <c r="C15">
-        <v>0.0</v>
-      </c>
-      <c r="D15">
-        <v>0.0</v>
-      </c>
-      <c r="E15">
-        <v>0.0</v>
-      </c>
-      <c r="F15">
-        <v>0.0</v>
-      </c>
-      <c r="G15">
-        <v>0.0</v>
-      </c>
-      <c r="H15">
-        <v>0.0</v>
-      </c>
-      <c r="I15">
-        <v>0.0</v>
-      </c>
-      <c r="J15">
-        <v>0.0</v>
-      </c>
-      <c r="K15">
-        <v>41076.973034</v>
-      </c>
-      <c r="L15">
-        <v>2679.44259</v>
-      </c>
-      <c r="M15">
-        <v>4370.0</v>
-      </c>
-      <c r="N15">
-        <v>1691.0</v>
-      </c>
-      <c r="O15">
-        <v>0.0</v>
-      </c>
-      <c r="P15">
-        <v>0.0</v>
-      </c>
-      <c r="Q15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16">
-        <v>1659.243171000002</v>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>32940.453301000009</v>
+      </c>
+      <c r="U15">
+        <v>48832</v>
+      </c>
+      <c r="V15">
+        <v>2400</v>
+      </c>
+      <c r="W15" s="1">
+        <f t="shared" si="0"/>
+        <v>31525.86892500001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A16" s="1">
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0</v>
-      </c>
-      <c r="K16">
-        <v>41542.335534</v>
-      </c>
-      <c r="L16">
-        <v>1732.421295</v>
-      </c>
-      <c r="M16">
-        <v>4370.0</v>
-      </c>
-      <c r="N16">
-        <v>1691.0</v>
-      </c>
-      <c r="O16">
-        <v>0.0</v>
-      </c>
-      <c r="P16">
-        <v>0.0</v>
-      </c>
-      <c r="Q16">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17">
-        <v>3049.680070000002</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>41542.335533999998</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1732.4212950000001</v>
+      </c>
+      <c r="M16" s="1">
+        <v>4370</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1691</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1659.2431710000019</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>31525.86892500001</v>
+      </c>
+      <c r="U16">
+        <v>48595</v>
+      </c>
+      <c r="V16">
+        <v>2400</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" si="0"/>
+        <v>29866.625754000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A17" s="1">
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0</v>
-      </c>
-      <c r="K17">
-        <v>41520.926966</v>
-      </c>
-      <c r="L17">
-        <v>594.392964</v>
-      </c>
-      <c r="M17">
-        <v>4370.0</v>
-      </c>
-      <c r="N17">
-        <v>1691.0</v>
-      </c>
-      <c r="O17">
-        <v>0.0</v>
-      </c>
-      <c r="P17">
-        <v>0.0</v>
-      </c>
-      <c r="Q17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18">
-        <v>4168.462293000004</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>41520.926965999999</v>
+      </c>
+      <c r="L17" s="1">
+        <v>594.39296400000001</v>
+      </c>
+      <c r="M17" s="1">
+        <v>4370</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1691</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>3049.6800700000022</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>29866.625754000008</v>
+      </c>
+      <c r="U17">
+        <v>48826</v>
+      </c>
+      <c r="V17">
+        <v>2400</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" si="0"/>
+        <v>26816.945684000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A18" s="1">
+        <v>0</v>
       </c>
       <c r="B18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0</v>
-      </c>
-      <c r="K18">
-        <v>42767.151966</v>
-      </c>
-      <c r="L18">
-        <v>29.385741</v>
-      </c>
-      <c r="M18">
-        <v>4370.0</v>
-      </c>
-      <c r="N18">
-        <v>1691.0</v>
-      </c>
-      <c r="O18">
-        <v>0.0</v>
-      </c>
-      <c r="P18">
-        <v>0.0</v>
-      </c>
-      <c r="Q18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19">
-        <v>6695.537500000006</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>42767.151965999998</v>
+      </c>
+      <c r="L18" s="1">
+        <v>29.385740999999999</v>
+      </c>
+      <c r="M18" s="1">
+        <v>4370</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1691</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>4168.4622930000041</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>26816.945684000006</v>
+      </c>
+      <c r="U18">
+        <v>50626</v>
+      </c>
+      <c r="V18">
+        <v>2400</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" si="0"/>
+        <v>22648.483391000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A19" s="1">
+        <v>130.53750000000582</v>
       </c>
       <c r="B19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0</v>
-      </c>
-      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
         <v>43436.462499999994</v>
       </c>
-      <c r="L19">
-        <v>0.0</v>
-      </c>
-      <c r="M19">
-        <v>4370.0</v>
-      </c>
-      <c r="N19">
-        <v>1691.0</v>
-      </c>
-      <c r="O19">
-        <v>0.0</v>
-      </c>
-      <c r="P19">
-        <v>0.0</v>
-      </c>
-      <c r="Q19">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20">
-        <v>7294.946699</v>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>4370</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1691</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>6565</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>22648.483391000002</v>
+      </c>
+      <c r="U19">
+        <v>53793</v>
+      </c>
+      <c r="V19">
+        <v>2400</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" si="0"/>
+        <v>16083.483391000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A20" s="1">
+        <v>7695</v>
       </c>
       <c r="B20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0</v>
-      </c>
-      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
         <v>43415.053301</v>
       </c>
-      <c r="L20">
-        <v>0.0</v>
-      </c>
-      <c r="M20">
-        <v>4370.0</v>
-      </c>
-      <c r="N20">
-        <v>1691.0</v>
-      </c>
-      <c r="O20">
-        <v>0.0</v>
-      </c>
-      <c r="P20">
-        <v>0.0</v>
-      </c>
-      <c r="Q20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21">
-        <v>7090.503301000004</v>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>4370</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1691</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>400.05330099999992</v>
+      </c>
+      <c r="T20" s="1">
+        <v>16083.483391000002</v>
+      </c>
+      <c r="U20">
+        <v>54371</v>
+      </c>
+      <c r="V20">
+        <v>2400</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" si="0"/>
+        <v>16483.536692000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A21" s="1">
+        <v>525.50330100000429</v>
       </c>
       <c r="B21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0</v>
-      </c>
-      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
         <v>43063.496698999996</v>
       </c>
-      <c r="L21">
-        <v>0.0</v>
-      </c>
-      <c r="M21">
-        <v>4370.0</v>
-      </c>
-      <c r="N21">
-        <v>1691.0</v>
-      </c>
-      <c r="O21">
-        <v>0.0</v>
-      </c>
-      <c r="P21">
-        <v>0.0</v>
-      </c>
-      <c r="Q21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22">
-        <v>4908.165801000003</v>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>4370</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1691</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>6565</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>16483.536692000001</v>
+      </c>
+      <c r="U21">
+        <v>53815</v>
+      </c>
+      <c r="V21">
+        <v>2400</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="0"/>
+        <v>9918.5366920000015</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A22" s="1">
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0</v>
-      </c>
-      <c r="K22">
-        <v>43039.834199</v>
-      </c>
-      <c r="L22">
-        <v>0.0</v>
-      </c>
-      <c r="M22">
-        <v>4370.0</v>
-      </c>
-      <c r="N22">
-        <v>1691.0</v>
-      </c>
-      <c r="O22">
-        <v>0.0</v>
-      </c>
-      <c r="P22">
-        <v>0.0</v>
-      </c>
-      <c r="Q22">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23">
-        <v>3481.684199000003</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>43039.834198999997</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>4370</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1691</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>4908.1658010000028</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>9918.5366920000015</v>
+      </c>
+      <c r="U22">
+        <v>51609</v>
+      </c>
+      <c r="V22">
+        <v>2400</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="0"/>
+        <v>5010.3708909999987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A23" s="1">
+        <v>6978.0613420000009</v>
       </c>
       <c r="B23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0</v>
-      </c>
-      <c r="K23">
-        <v>42555.315801</v>
-      </c>
-      <c r="L23">
-        <v>0.0</v>
-      </c>
-      <c r="M23">
-        <v>4370.0</v>
-      </c>
-      <c r="N23">
-        <v>1691.0</v>
-      </c>
-      <c r="O23">
-        <v>0.0</v>
-      </c>
-      <c r="P23">
-        <v>0.0</v>
-      </c>
-      <c r="Q23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24">
-        <v>3701.8624999999956</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>42555.315800999997</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>4370</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1691</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>3496.3771429999979</v>
+      </c>
+      <c r="T23" s="1">
+        <v>5010.3708909999987</v>
+      </c>
+      <c r="U23">
+        <v>49698</v>
+      </c>
+      <c r="V23">
+        <v>2400</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="0"/>
+        <v>8506.7480339999966</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A24" s="1">
+        <v>7695</v>
       </c>
       <c r="B24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0</v>
-      </c>
-      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
         <v>41496.137500000004</v>
       </c>
-      <c r="L24">
-        <v>0.0</v>
-      </c>
-      <c r="M24">
-        <v>4370.0</v>
-      </c>
-      <c r="N24">
-        <v>1691.0</v>
-      </c>
-      <c r="O24">
-        <v>0.0</v>
-      </c>
-      <c r="P24">
-        <v>0.0</v>
-      </c>
-      <c r="Q24">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25">
-        <v>1344.885534000001</v>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>4370</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1691</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>3993.1375000000044</v>
+      </c>
+      <c r="T24" s="1">
+        <v>8506.7480339999966</v>
+      </c>
+      <c r="U24">
+        <v>48859</v>
+      </c>
+      <c r="V24">
+        <v>2400</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="0"/>
+        <v>12499.885534000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A25" s="1">
+        <v>7695</v>
       </c>
       <c r="B25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0</v>
-      </c>
-      <c r="K25">
-        <v>41087.114466</v>
-      </c>
-      <c r="L25">
-        <v>0.0</v>
-      </c>
-      <c r="M25">
-        <v>4370.0</v>
-      </c>
-      <c r="N25">
-        <v>1691.0</v>
-      </c>
-      <c r="O25">
-        <v>0.0</v>
-      </c>
-      <c r="P25">
-        <v>0.0</v>
-      </c>
-      <c r="Q25">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>41087.114465999999</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>4370</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1691</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>6350.1144659999991</v>
+      </c>
+      <c r="T25" s="1">
+        <v>12499.885534000001</v>
+      </c>
+      <c r="U25">
+        <v>46093</v>
+      </c>
+      <c r="V25">
+        <v>2400</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="0"/>
+        <v>18850</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="T26">
+        <v>18850</v>
       </c>
     </row>
   </sheetData>
@@ -1768,13 +2289,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1826,1277 +2347,1352 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A2">
-        <v>39024.0</v>
+        <v>32037</v>
       </c>
       <c r="B2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1622.0</v>
+        <v>1622</v>
       </c>
       <c r="L2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>24130.0</v>
+        <v>24130</v>
       </c>
       <c r="O2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A3">
-        <v>37134.0</v>
+        <v>30147</v>
       </c>
       <c r="B3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1637.0</v>
+        <v>1637</v>
       </c>
       <c r="L3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>24130.0</v>
+        <v>24130</v>
       </c>
       <c r="O3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A4">
-        <v>34020.76170444444</v>
+        <v>29123.633663366338</v>
       </c>
       <c r="B4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1567.0</v>
+        <v>1567</v>
       </c>
       <c r="L4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>24130.0</v>
+        <v>24130</v>
       </c>
       <c r="O4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>4519.3663366336623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A5">
-        <v>30258.0</v>
+        <v>30258</v>
       </c>
       <c r="B5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>1555.9999999999998</v>
       </c>
       <c r="L5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>24130.0</v>
+        <v>24130</v>
       </c>
       <c r="O5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A6">
-        <v>28053.0</v>
+        <v>28053</v>
       </c>
       <c r="B6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1595.0</v>
+        <v>1595</v>
       </c>
       <c r="L6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>24130.0</v>
+        <v>24130</v>
       </c>
       <c r="O6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A7">
-        <v>27535.0</v>
+        <v>27535</v>
       </c>
       <c r="B7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1719.0</v>
+        <v>1719</v>
       </c>
       <c r="L7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>24130.0</v>
+        <v>24130</v>
       </c>
       <c r="O7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A8">
-        <v>27334.553019400002</v>
+        <v>32944</v>
       </c>
       <c r="B8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1794.0</v>
+        <v>1794</v>
       </c>
       <c r="L8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>24130.0</v>
+        <v>24130</v>
       </c>
       <c r="O8">
-        <v>469.3855340000009</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A9">
-        <v>27235.1770291</v>
+        <v>22876</v>
       </c>
       <c r="B9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1780.0</v>
+        <v>1780</v>
       </c>
       <c r="L9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>24130.0</v>
+        <v>24130</v>
       </c>
       <c r="O9">
-        <v>919.8033009999999</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A10">
-        <v>26563.964269400007</v>
+        <v>32924</v>
       </c>
       <c r="B10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1730.0</v>
+        <v>1730</v>
       </c>
       <c r="L10">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="M10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>24130.0</v>
+        <v>24130</v>
       </c>
       <c r="O10">
-        <v>1303.3730339999966</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A11">
-        <v>28327.0</v>
+        <v>23140</v>
       </c>
       <c r="B11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1670.0</v>
+        <v>1670</v>
       </c>
       <c r="L11">
-        <v>503.0</v>
+        <v>503</v>
       </c>
       <c r="M11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>24130.0</v>
+        <v>24130</v>
       </c>
       <c r="O11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A12">
-        <v>29691.0</v>
+        <v>34878</v>
       </c>
       <c r="B12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1589.0</v>
+        <v>1589</v>
       </c>
       <c r="L12">
-        <v>1067.0</v>
+        <v>1067</v>
       </c>
       <c r="M12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>24130.0</v>
+        <v>24130</v>
       </c>
       <c r="O12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A13">
-        <v>31334.0</v>
+        <v>26147</v>
       </c>
       <c r="B13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1602.0</v>
+        <v>1602</v>
       </c>
       <c r="L13">
-        <v>1456.0</v>
+        <v>1456</v>
       </c>
       <c r="M13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>24130.0</v>
+        <v>24130</v>
       </c>
       <c r="O13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A14">
-        <v>33704.0</v>
+        <v>38891</v>
       </c>
       <c r="B14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1725.0</v>
+        <v>1725</v>
       </c>
       <c r="L14">
-        <v>1628.0</v>
+        <v>1628</v>
       </c>
       <c r="M14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>24130.0</v>
+        <v>24130</v>
       </c>
       <c r="O14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A15">
-        <v>32981.0</v>
+        <v>38168</v>
       </c>
       <c r="B15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1971.0</v>
+        <v>1971</v>
       </c>
       <c r="L15">
-        <v>1747.0</v>
+        <v>1747</v>
       </c>
       <c r="M15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>24130.0</v>
+        <v>24130</v>
       </c>
       <c r="O15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A16">
-        <v>31077.0</v>
+        <v>36264</v>
       </c>
       <c r="B16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>2096.0</v>
+        <v>2096</v>
       </c>
       <c r="L16">
-        <v>1474.0</v>
+        <v>1474</v>
       </c>
       <c r="M16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>24130.0</v>
+        <v>24130</v>
       </c>
       <c r="O16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A17">
-        <v>30377.0</v>
+        <v>35564</v>
       </c>
       <c r="B17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>2108.0</v>
+        <v>2108</v>
       </c>
       <c r="L17">
-        <v>904.0</v>
+        <v>904</v>
       </c>
       <c r="M17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>24130.0</v>
+        <v>24130</v>
       </c>
       <c r="O17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A18">
-        <v>30884.0</v>
+        <v>36071</v>
       </c>
       <c r="B18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>2104.0</v>
+        <v>2104</v>
       </c>
       <c r="L18">
-        <v>324.0</v>
+        <v>324</v>
       </c>
       <c r="M18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>24130.0</v>
+        <v>24130</v>
       </c>
       <c r="O18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A19">
-        <v>33817.0</v>
+        <v>37668.732673267325</v>
       </c>
       <c r="B19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>2185.0</v>
+        <v>2185</v>
       </c>
       <c r="L19">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="M19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>24130.0</v>
+        <v>24130</v>
       </c>
       <c r="O19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A20">
-        <v>36916.0</v>
+        <v>31729</v>
       </c>
       <c r="B20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>2444.0</v>
+        <v>2444</v>
       </c>
       <c r="L20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>24130.0</v>
+        <v>24130</v>
       </c>
       <c r="O20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A21">
-        <v>37815.0</v>
+        <v>32628</v>
       </c>
       <c r="B21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>2596.0</v>
+        <v>2596</v>
       </c>
       <c r="L21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>24130.0</v>
+        <v>24130</v>
       </c>
       <c r="O21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A22">
-        <v>36258.0</v>
+        <v>41445</v>
       </c>
       <c r="B22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>2772.0</v>
+        <v>2772</v>
       </c>
       <c r="L22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>24130.0</v>
+        <v>24130</v>
       </c>
       <c r="O22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A23">
-        <v>33812.0</v>
+        <v>34479.633663366338</v>
       </c>
       <c r="B23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>3018.0</v>
+        <v>3018</v>
       </c>
       <c r="L23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>24130.0</v>
+        <v>24130</v>
       </c>
       <c r="O23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A24">
-        <v>34639.0</v>
+        <v>29452</v>
       </c>
       <c r="B24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>3014.0</v>
+        <v>3014</v>
       </c>
       <c r="L24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>24130.0</v>
+        <v>24130</v>
       </c>
       <c r="O24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A25">
-        <v>35422.0</v>
+        <v>30235</v>
       </c>
       <c r="B25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>3011.0</v>
+        <v>3011</v>
       </c>
       <c r="L25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>24130.0</v>
+        <v>24130</v>
       </c>
       <c r="O25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>5187</v>
       </c>
     </row>
   </sheetData>
@@ -3106,13 +3702,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3164,1277 +3762,1352 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>457.9</v>
       </c>
       <c r="B2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>4446.0</v>
+        <v>4446</v>
       </c>
       <c r="G2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1039.1</v>
+        <v>1039.0999999999999</v>
       </c>
       <c r="J2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1512.0</v>
+        <v>1512</v>
       </c>
       <c r="L2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="O2">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="P2">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="Q2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>457.9</v>
       </c>
       <c r="B3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4446.0</v>
+        <v>4446</v>
       </c>
       <c r="G3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>923.1</v>
       </c>
       <c r="J3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1537.0</v>
+        <v>1537</v>
       </c>
       <c r="L3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="O3">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="P3">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="Q3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>457.9</v>
       </c>
       <c r="B4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>4446.0</v>
+        <v>4446</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>573.1</v>
       </c>
       <c r="J4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1626.0</v>
+        <v>1626</v>
       </c>
       <c r="L4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="O4">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="P4">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="Q4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>457.9</v>
       </c>
       <c r="B5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>4446.0</v>
+        <v>4446</v>
       </c>
       <c r="G5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>214.10000000000002</v>
       </c>
       <c r="J5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1719.0</v>
+        <v>1719</v>
       </c>
       <c r="L5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="O5">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="P5">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="Q5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>457.9</v>
       </c>
       <c r="B6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>4350.1</v>
+        <v>4350.1000000000004</v>
       </c>
       <c r="G6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1775.0</v>
+        <v>1775</v>
       </c>
       <c r="L6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="O6">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="P6">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="Q6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>457.9</v>
       </c>
       <c r="B7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>4300.1</v>
+        <v>4300.1000000000004</v>
       </c>
       <c r="G7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1853.0</v>
+        <v>1853</v>
       </c>
       <c r="L7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="O7">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="P7">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="Q7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>457.9</v>
       </c>
       <c r="B8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>4446.0</v>
+        <v>4446</v>
       </c>
       <c r="G8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>68.10000000000002</v>
+        <v>68.100000000000023</v>
       </c>
       <c r="J8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1868.0</v>
+        <v>1868</v>
       </c>
       <c r="L8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="O8">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="P8">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="Q8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>457.9</v>
       </c>
       <c r="B9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>4446.0</v>
+        <v>4446</v>
       </c>
       <c r="G9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>310.1</v>
+        <v>310.10000000000002</v>
       </c>
       <c r="J9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1855.0</v>
+        <v>1855</v>
       </c>
       <c r="L9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="O9">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="P9">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="Q9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>457.9</v>
       </c>
       <c r="B10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>4446.0</v>
+        <v>4446</v>
       </c>
       <c r="G10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>644.9059999999996</v>
+        <v>644.90599999999961</v>
       </c>
       <c r="J10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1782.0</v>
+        <v>1782</v>
       </c>
       <c r="L10">
-        <v>0.194</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="M10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="O10">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="P10">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="Q10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>457.9</v>
       </c>
       <c r="B11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>4446.0</v>
+        <v>4446</v>
       </c>
       <c r="G11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1177.7535478500008</v>
+        <v>1177.7535478499999</v>
       </c>
       <c r="J11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1550.0</v>
+        <v>1550</v>
       </c>
       <c r="L11">
         <v>1.34645215</v>
       </c>
       <c r="M11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="O11">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="P11">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="Q11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>457.9</v>
       </c>
       <c r="B12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>4446.0</v>
+        <v>4446</v>
       </c>
       <c r="G12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>1538.9382617200004</v>
       </c>
       <c r="J12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1561.0</v>
+        <v>1561</v>
       </c>
       <c r="L12">
-        <v>3.16173828</v>
+        <v>3.1617382799999998</v>
       </c>
       <c r="M12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="O12">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="P12">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="Q12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>457.9</v>
       </c>
       <c r="B13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>4446.0</v>
+        <v>4446</v>
       </c>
       <c r="G13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>1895.3585478500004</v>
       </c>
       <c r="J13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1624.0</v>
+        <v>1624</v>
       </c>
       <c r="L13">
-        <v>4.74145215</v>
+        <v>4.7414521499999998</v>
       </c>
       <c r="M13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="O13">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="P13">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="Q13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>457.9</v>
       </c>
       <c r="B14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>4446.0</v>
+        <v>4446</v>
       </c>
       <c r="G14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>2116.9451425799994</v>
       </c>
       <c r="J14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1637.0</v>
+        <v>1637</v>
       </c>
       <c r="L14">
-        <v>5.15485742</v>
+        <v>5.1548574199999999</v>
       </c>
       <c r="M14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="O14">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="P14">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="Q14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>457.9</v>
       </c>
       <c r="B15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>4446.0</v>
+        <v>4446</v>
       </c>
       <c r="G15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>2176.4670956999994</v>
       </c>
       <c r="J15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1695.0</v>
+        <v>1695</v>
       </c>
       <c r="L15">
-        <v>4.6329043</v>
+        <v>4.6329042999999999</v>
       </c>
       <c r="M15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="O15">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="P15">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="Q15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>457.9</v>
       </c>
       <c r="B16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>4446.0</v>
+        <v>4446</v>
       </c>
       <c r="G16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>2050.1045478499996</v>
       </c>
       <c r="J16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="L16">
-        <v>2.99545215</v>
+        <v>2.9954521500000002</v>
       </c>
       <c r="M16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="O16">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="P16">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="Q16">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>457.9</v>
       </c>
       <c r="B17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>4446.0</v>
+        <v>4446</v>
       </c>
       <c r="G17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>2119.0722617200004</v>
       </c>
       <c r="J17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1855.0</v>
+        <v>1855</v>
       </c>
       <c r="L17">
         <v>1.0277382800000001</v>
       </c>
       <c r="M17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="O17">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="P17">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="Q17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>457.9</v>
       </c>
       <c r="B18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>4446.0</v>
+        <v>4446</v>
       </c>
       <c r="G18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>2418.0491904299993</v>
       </c>
       <c r="J18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1925.0</v>
+        <v>1925</v>
       </c>
       <c r="L18">
-        <v>0.05080957</v>
+        <v>5.0809569999999998E-2</v>
       </c>
       <c r="M18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="O18">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="P18">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="Q18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>457.9</v>
       </c>
       <c r="B19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>4446.0</v>
+        <v>4446</v>
       </c>
       <c r="G19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>3352.1</v>
       </c>
       <c r="J19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1993.0</v>
+        <v>1993</v>
       </c>
       <c r="L19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="O19">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="P19">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="Q19">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>457.9</v>
       </c>
       <c r="B20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>4446.0</v>
+        <v>4446</v>
       </c>
       <c r="G20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>3187.1</v>
       </c>
       <c r="J20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>2029.0</v>
+        <v>2029</v>
       </c>
       <c r="L20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="O20">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="P20">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="Q20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>457.9</v>
       </c>
       <c r="B21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>4446.0</v>
+        <v>4446</v>
       </c>
       <c r="G21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>2938.1</v>
       </c>
       <c r="J21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>2006.0</v>
+        <v>2006</v>
       </c>
       <c r="L21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="O21">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="P21">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="Q21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>457.9</v>
       </c>
       <c r="B22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>4446.0</v>
+        <v>4446</v>
       </c>
       <c r="G22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>2575.1</v>
       </c>
       <c r="J22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>2002.0</v>
+        <v>2002</v>
       </c>
       <c r="L22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="O22">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="P22">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="Q22">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>457.9</v>
       </c>
       <c r="B23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>4446.0</v>
+        <v>4446</v>
       </c>
       <c r="G23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>2009.1</v>
       </c>
       <c r="J23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="L23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="O23">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="P23">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="Q23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>457.9</v>
       </c>
       <c r="B24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>4446.0</v>
+        <v>4446</v>
       </c>
       <c r="G24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>1486.1</v>
       </c>
       <c r="J24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>2002.0</v>
+        <v>2002</v>
       </c>
       <c r="L24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="O24">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="P24">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="Q24">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>457.9</v>
       </c>
       <c r="B25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>4446.0</v>
+        <v>4446</v>
       </c>
       <c r="G25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>817.1</v>
       </c>
       <c r="J25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1971.0</v>
+        <v>1971</v>
       </c>
       <c r="L25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="O25">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="P25">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="Q25">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4446,11 +5119,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -4461,9 +5134,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2">
-        <v>61.427848101265816</v>
+        <v>15.714285714285715</v>
       </c>
       <c r="B2">
         <v>15.714285714285715</v>
@@ -4472,9 +5145,9 @@
         <v>126.59607843137255</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3">
-        <v>61.427848101265816</v>
+        <v>15.714285714285715</v>
       </c>
       <c r="B3">
         <v>15.714285714285715</v>
@@ -4483,9 +5156,9 @@
         <v>126.59607843137255</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4">
-        <v>17.460317460317462</v>
+        <v>15.714285714285715</v>
       </c>
       <c r="B4">
         <v>15.714285714285715</v>
@@ -4494,7 +5167,7 @@
         <v>126.59607843137255</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>15.714285714285715</v>
       </c>
@@ -4505,7 +5178,7 @@
         <v>126.59607843137255</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>15.714285714285715</v>
       </c>
@@ -4513,10 +5186,10 @@
         <v>15.714285714285715</v>
       </c>
       <c r="C6">
-        <v>95.46268656716418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>95.462686567164184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>15.714285714285715</v>
       </c>
@@ -4524,12 +5197,12 @@
         <v>15.714285714285715</v>
       </c>
       <c r="C7">
-        <v>95.46268656716418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>95.462686567164184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8">
-        <v>14.142857142857144</v>
+        <v>15.714285714285715</v>
       </c>
       <c r="B8">
         <v>15.714285714285715</v>
@@ -4538,9 +5211,9 @@
         <v>126.59607843137255</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9">
-        <v>14.142857142857144</v>
+        <v>15.714285714285715</v>
       </c>
       <c r="B9">
         <v>15.714285714285715</v>
@@ -4549,9 +5222,9 @@
         <v>126.59607843137255</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10">
-        <v>14.142857142857144</v>
+        <v>15.714285714285715</v>
       </c>
       <c r="B10">
         <v>15.714285714285715</v>
@@ -4560,7 +5233,7 @@
         <v>126.59607843137255</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>15.714285714285715</v>
       </c>
@@ -4571,7 +5244,7 @@
         <v>126.59607843137255</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>15.714285714285715</v>
       </c>
@@ -4582,7 +5255,7 @@
         <v>126.59607843137255</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>15.714285714285715</v>
       </c>
@@ -4593,7 +5266,7 @@
         <v>126.59607843137255</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>15.714285714285715</v>
       </c>
@@ -4604,7 +5277,7 @@
         <v>126.59607843137255</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>15.714285714285715</v>
       </c>
@@ -4615,7 +5288,7 @@
         <v>126.59607843137255</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15.714285714285715</v>
       </c>
@@ -4626,7 +5299,7 @@
         <v>126.59607843137255</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>15.714285714285715</v>
       </c>
@@ -4637,7 +5310,7 @@
         <v>126.59607843137255</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>15.714285714285715</v>
       </c>
@@ -4648,7 +5321,7 @@
         <v>126.59607843137255</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>15.714285714285715</v>
       </c>
@@ -4659,7 +5332,7 @@
         <v>126.59607843137255</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>15.714285714285715</v>
       </c>
@@ -4670,7 +5343,7 @@
         <v>126.59607843137255</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>15.714285714285715</v>
       </c>
@@ -4681,7 +5354,7 @@
         <v>126.59607843137255</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>15.714285714285715</v>
       </c>
@@ -4692,7 +5365,7 @@
         <v>126.59607843137255</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>15.714285714285715</v>
       </c>
@@ -4703,7 +5376,7 @@
         <v>126.59607843137255</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>15.714285714285715</v>
       </c>
@@ -4714,7 +5387,7 @@
         <v>126.59607843137255</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>15.714285714285715</v>
       </c>
@@ -4723,6 +5396,1722 @@
       </c>
       <c r="C25">
         <v>126.59607843137255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:R25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>4663.3927670000012</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>6350.2283010000028</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>6565</v>
+      </c>
+      <c r="P8">
+        <v>5187</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>6565</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>6565</v>
+      </c>
+      <c r="P10">
+        <v>5187</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>6360.603498000004</v>
+      </c>
+      <c r="P12">
+        <v>5187</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>5187</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>5187</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>5187</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>5187</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>5187</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>3851.7326732673246</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>400.05330099999992</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>5187</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>3496.3771429999979</v>
+      </c>
+      <c r="P23">
+        <v>667.63366336633771</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>3993.1375000000044</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>6350.1144659999991</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>18850</v>
+      </c>
+      <c r="B2">
+        <v>14893.366336633662</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>12285</v>
+      </c>
+      <c r="B3">
+        <v>9706.3663366336623</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>5720</v>
+      </c>
+      <c r="B4">
+        <v>4519.3663366336623</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>5380.0144659999969</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>94.457232999997359</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>4757.8499999999985</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <v>11108.078301000001</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>17673.078301000001</v>
+      </c>
+      <c r="B9">
+        <v>5187</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>24238.078301000001</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>30803.078301000001</v>
+      </c>
+      <c r="B11">
+        <v>5187</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>29591.808795000004</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>35952.412293000009</v>
+      </c>
+      <c r="B13">
+        <v>5187</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>35107.53162200001</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>32940.453301000009</v>
+      </c>
+      <c r="B15">
+        <v>5187</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <v>31525.86892500001</v>
+      </c>
+      <c r="B16">
+        <v>10374</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <v>29866.625754000008</v>
+      </c>
+      <c r="B17">
+        <v>15561</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A18">
+        <v>26816.945684000006</v>
+      </c>
+      <c r="B18">
+        <v>20748</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A19">
+        <v>22648.483391000002</v>
+      </c>
+      <c r="B19">
+        <v>25935</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A20">
+        <v>16083.483391000002</v>
+      </c>
+      <c r="B20">
+        <v>29786.732673267325</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A21">
+        <v>16483.536692000001</v>
+      </c>
+      <c r="B21">
+        <v>24599.732673267325</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A22">
+        <v>9918.5366920000015</v>
+      </c>
+      <c r="B22">
+        <v>19412.732673267325</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A23">
+        <v>5010.3708909999987</v>
+      </c>
+      <c r="B23">
+        <v>24599.732673267325</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A24">
+        <v>8506.7480339999966</v>
+      </c>
+      <c r="B24">
+        <v>25267.366336633662</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A25">
+        <v>12499.885534000001</v>
+      </c>
+      <c r="B25">
+        <v>20080.366336633662</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A26">
+        <v>18850</v>
+      </c>
+      <c r="B26">
+        <v>14893.366336633662</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Ergebnisse.xlsx
+++ b/Ergebnisse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\OneDrive\Dokumente\SENCE\Semester 2_Projekte\Projekt 1_EWI_03_2022\EWI Einstiegsmodell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{7C4D73D8-FE4E-4094-BDB5-0EA0093ED050}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{EEBB7796-643E-4181-81CF-B71F91D2CC39}"/>
   <bookViews>
     <workbookView xWindow="383" yWindow="458" windowWidth="28043" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
@@ -29,8 +29,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>miria</author>
+  </authors>
+  <commentList>
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{D9992855-A50C-4DD7-9F03-78AAE55EDCB3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>miria:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Aus Input Excel</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="23">
   <si>
     <t>Kernenergie</t>
   </si>
@@ -86,29 +120,26 @@
     <t>Pumpspeicher</t>
   </si>
   <si>
-    <t>Pumpspeicher_Ausspeicherung</t>
+    <t>Einspeicherung</t>
   </si>
   <si>
-    <t>Pumpspeicher_Einspeicherung</t>
+    <t>Ausspeicherung</t>
+  </si>
+  <si>
+    <t>Speicherstand</t>
+  </si>
+  <si>
+    <t>Export DE</t>
   </si>
   <si>
     <t>Nachfrage</t>
-  </si>
-  <si>
-    <t>Export NL</t>
-  </si>
-  <si>
-    <t>Speicherstand Ende Std</t>
-  </si>
-  <si>
-    <t>Speicherstand anfang Std</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,6 +154,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -462,23 +506,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:W26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="10.625" hidden="1" customWidth="1"/>
-    <col min="3" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5625" customWidth="1"/>
-    <col min="19" max="19" width="18.125" customWidth="1"/>
-    <col min="20" max="20" width="10.875" customWidth="1"/>
+    <col min="2" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,53 +571,50 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
       <c r="T1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="U1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
-        <v>6685.1927670000005</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
+        <v>7695</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
         <v>0</v>
       </c>
       <c r="K2" s="1">
@@ -596,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="Q2" s="1">
         <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>6565</v>
+        <v>3935.1927670000005</v>
       </c>
       <c r="S2" s="1">
         <v>0</v>
@@ -610,46 +647,46 @@
       <c r="T2" s="1">
         <v>18850</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V2" s="1">
         <v>42976</v>
       </c>
-      <c r="V2">
-        <v>2400</v>
-      </c>
       <c r="W2" s="1">
-        <f>T2+S2-R2</f>
-        <v>12285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.5">
+        <f>SUM(A2:N2)+P2*0.9+R2-V2-U2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
-        <v>3273.4019660000013</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+        <v>7695</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
         <v>0</v>
       </c>
       <c r="K3" s="1">
@@ -668,60 +705,60 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="Q3" s="1">
         <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>6565</v>
+        <v>523.40196600000127</v>
       </c>
       <c r="S3" s="1">
         <v>0</v>
       </c>
       <c r="T3" s="1">
-        <v>12285</v>
-      </c>
-      <c r="U3">
+        <v>14914.807233</v>
+      </c>
+      <c r="U3" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V3" s="1">
         <v>41562</v>
       </c>
-      <c r="V3">
-        <v>2400</v>
-      </c>
       <c r="W3" s="1">
-        <f t="shared" ref="W3:W25" si="0">T3+S3-R3</f>
-        <v>5720</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.5">
+        <f t="shared" ref="W3:W26" si="0">SUM(A3:N3)+P3*0.9+R3-V3-U3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>7695</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
         <v>0</v>
       </c>
       <c r="K4" s="1">
@@ -740,60 +777,60 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>377.76170444444142</v>
       </c>
       <c r="Q4" s="1">
         <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>339.9855340000031</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
         <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>5720</v>
-      </c>
-      <c r="U4">
+        <v>14391.405266999998</v>
+      </c>
+      <c r="U4" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V4" s="1">
         <v>40100</v>
-      </c>
-      <c r="V4">
-        <v>2400</v>
       </c>
       <c r="W4" s="1">
         <f t="shared" si="0"/>
-        <v>5380.0144659999969</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.5">
+        <v>-7.2759576141834259E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
+        <v>5285.5572329999995</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
         <v>0</v>
       </c>
       <c r="K5" s="1">
@@ -818,54 +855,54 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>5285.5572329999995</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>5380.0144659999969</v>
-      </c>
-      <c r="U5">
+        <v>14391.405266999998</v>
+      </c>
+      <c r="U5" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V5" s="1">
         <v>38883</v>
-      </c>
-      <c r="V5">
-        <v>2400</v>
       </c>
       <c r="W5" s="1">
         <f t="shared" si="0"/>
-        <v>94.457232999997359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
-        <v>7695</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+        <v>3031.6072329999988</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
         <v>0</v>
       </c>
       <c r="K6" s="1">
@@ -893,51 +930,51 @@
         <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>4663.3927670000012</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>94.457232999997359</v>
-      </c>
-      <c r="U6">
+        <v>14391.405266999998</v>
+      </c>
+      <c r="U6" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V6" s="1">
         <v>38806</v>
-      </c>
-      <c r="V6">
-        <v>2400</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="0"/>
-        <v>4757.8499999999985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
-        <v>7695</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
+        <v>1344.7716989999972</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
         <v>0</v>
       </c>
       <c r="K7" s="1">
@@ -965,51 +1002,51 @@
         <v>0</v>
       </c>
       <c r="S7" s="1">
-        <v>6350.2283010000028</v>
+        <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>4757.8499999999985</v>
-      </c>
-      <c r="U7">
+        <v>14391.405266999998</v>
+      </c>
+      <c r="U7" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V7" s="1">
         <v>38593</v>
-      </c>
-      <c r="V7">
-        <v>2400</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" si="0"/>
-        <v>11108.078301000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
-        <v>6095.6144659999991</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
         <v>0</v>
       </c>
       <c r="K8" s="1">
@@ -1037,51 +1074,55 @@
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>6565</v>
+        <v>375.50842720000219</v>
       </c>
       <c r="T8" s="1">
-        <v>11108.078301000001</v>
-      </c>
-      <c r="U8">
+        <v>14391.405266999998</v>
+      </c>
+      <c r="U8" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V8" s="1">
         <v>38140</v>
-      </c>
-      <c r="V8">
-        <v>2400</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" si="0"/>
-        <v>17673.078301000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.5">
+        <v>469.38553400000092</v>
+      </c>
+      <c r="X8" s="1">
+        <f>W8*0.8</f>
+        <v>375.50842720000077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
-        <v>5645.1966990000001</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
         <v>0</v>
       </c>
       <c r="K9" s="1">
@@ -1109,51 +1150,55 @@
         <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>6565</v>
+        <v>735.84264079999411</v>
       </c>
       <c r="T9" s="1">
-        <v>17673.078301000001</v>
-      </c>
-      <c r="U9">
+        <v>14766.9136942</v>
+      </c>
+      <c r="U9" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V9" s="1">
         <v>38742</v>
-      </c>
-      <c r="V9">
-        <v>2400</v>
       </c>
       <c r="W9" s="1">
         <f t="shared" si="0"/>
-        <v>24238.078301000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.5">
+        <v>919.80330099999992</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" ref="X9:X26" si="1">W9*0.8</f>
+        <v>735.84264080000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
-        <v>5261.6269660000034</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
         <v>0</v>
       </c>
       <c r="K10" s="1">
@@ -1181,51 +1226,55 @@
         <v>0</v>
       </c>
       <c r="S10" s="1">
-        <v>6565</v>
+        <v>1042.6984271999972</v>
       </c>
       <c r="T10" s="1">
-        <v>24238.078301000001</v>
-      </c>
-      <c r="U10">
+        <v>15502.756334999995</v>
+      </c>
+      <c r="U10" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V10" s="1">
         <v>39256</v>
-      </c>
-      <c r="V10">
-        <v>2400</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" si="0"/>
-        <v>30803.078301000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.5">
+        <v>1303.3730339999966</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" si="1"/>
+        <v>1042.6984271999972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
+        <v>1211.2695059999969</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
         <v>0</v>
       </c>
       <c r="K11" s="1">
@@ -1250,54 +1299,58 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>1211.2695059999969</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>30803.078301000001</v>
-      </c>
-      <c r="U11">
+        <v>16545.454762199992</v>
+      </c>
+      <c r="U11" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V11" s="1">
         <v>42018</v>
-      </c>
-      <c r="V11">
-        <v>2400</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="0"/>
-        <v>29591.808795000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
-        <v>7695</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
+        <v>1334.396501999996</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
         <v>0</v>
       </c>
       <c r="K12" s="1">
@@ -1325,51 +1378,55 @@
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>6360.603498000004</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>29591.808795000004</v>
-      </c>
-      <c r="U12">
+        <v>16545.454762199992</v>
+      </c>
+      <c r="U12" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V12" s="1">
         <v>44533</v>
-      </c>
-      <c r="V12">
-        <v>2400</v>
       </c>
       <c r="W12" s="1">
         <f t="shared" si="0"/>
-        <v>35952.412293000009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
+        <v>844.88067099999898</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
         <v>0</v>
       </c>
       <c r="K13" s="1">
@@ -1394,54 +1451,58 @@
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>844.88067099999898</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>35952.412293000009</v>
-      </c>
-      <c r="U13">
+        <v>16545.454762199992</v>
+      </c>
+      <c r="U13" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V13" s="1">
         <v>47489</v>
-      </c>
-      <c r="V13">
-        <v>2400</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" si="0"/>
-        <v>35107.53162200001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
+        <v>2167.0783210000009</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
         <v>0</v>
       </c>
       <c r="K14" s="1">
@@ -1466,54 +1527,58 @@
         <v>0</v>
       </c>
       <c r="R14" s="1">
-        <v>2167.0783210000009</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1">
         <v>0</v>
       </c>
       <c r="T14" s="1">
-        <v>35107.53162200001</v>
-      </c>
-      <c r="U14">
+        <v>16545.454762199992</v>
+      </c>
+      <c r="U14" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V14" s="1">
         <v>49261</v>
-      </c>
-      <c r="V14">
-        <v>2400</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="0"/>
-        <v>32940.453301000009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
+        <v>1414.5843759999989</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
         <v>0</v>
       </c>
       <c r="K15" s="1">
@@ -1538,54 +1603,58 @@
         <v>0</v>
       </c>
       <c r="R15" s="1">
-        <v>1414.5843759999989</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1">
         <v>0</v>
       </c>
       <c r="T15" s="1">
-        <v>32940.453301000009</v>
-      </c>
-      <c r="U15">
+        <v>16545.454762199992</v>
+      </c>
+      <c r="U15" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V15" s="1">
         <v>48832</v>
-      </c>
-      <c r="V15">
-        <v>2400</v>
       </c>
       <c r="W15" s="1">
         <f t="shared" si="0"/>
-        <v>31525.86892500001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
+        <v>1659.2431710000019</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
         <v>0</v>
       </c>
       <c r="K16" s="1">
@@ -1610,54 +1679,58 @@
         <v>0</v>
       </c>
       <c r="R16" s="1">
-        <v>1659.2431710000019</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1">
         <v>0</v>
       </c>
       <c r="T16" s="1">
-        <v>31525.86892500001</v>
-      </c>
-      <c r="U16">
+        <v>16545.454762199992</v>
+      </c>
+      <c r="U16" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V16" s="1">
         <v>48595</v>
-      </c>
-      <c r="V16">
-        <v>2400</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="0"/>
-        <v>29866.625754000008</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
+        <v>3049.6800700000022</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
         <v>0</v>
       </c>
       <c r="K17" s="1">
@@ -1682,54 +1755,58 @@
         <v>0</v>
       </c>
       <c r="R17" s="1">
-        <v>3049.6800700000022</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1">
         <v>0</v>
       </c>
       <c r="T17" s="1">
-        <v>29866.625754000008</v>
-      </c>
-      <c r="U17">
+        <v>16545.454762199992</v>
+      </c>
+      <c r="U17" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V17" s="1">
         <v>48826</v>
-      </c>
-      <c r="V17">
-        <v>2400</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="0"/>
-        <v>26816.945684000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A18" s="1">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
+        <v>4168.4622930000041</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
         <v>0</v>
       </c>
       <c r="K18" s="1">
@@ -1754,54 +1831,58 @@
         <v>0</v>
       </c>
       <c r="R18" s="1">
-        <v>4168.4622930000041</v>
+        <v>0</v>
       </c>
       <c r="S18" s="1">
         <v>0</v>
       </c>
       <c r="T18" s="1">
-        <v>26816.945684000006</v>
-      </c>
-      <c r="U18">
+        <v>16545.454762199992</v>
+      </c>
+      <c r="U18" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V18" s="1">
         <v>50626</v>
-      </c>
-      <c r="V18">
-        <v>2400</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="0"/>
-        <v>22648.483391000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A19" s="1">
-        <v>130.53750000000582</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
+        <v>6695.5375000000058</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
         <v>0</v>
       </c>
       <c r="K19" s="1">
@@ -1826,54 +1907,58 @@
         <v>0</v>
       </c>
       <c r="R19" s="1">
-        <v>6565</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1">
         <v>0</v>
       </c>
       <c r="T19" s="1">
-        <v>22648.483391000002</v>
-      </c>
-      <c r="U19">
+        <v>16545.454762199992</v>
+      </c>
+      <c r="U19" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V19" s="1">
         <v>53793</v>
-      </c>
-      <c r="V19">
-        <v>2400</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="0"/>
-        <v>16083.483391000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
-        <v>7695</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
+        <v>7294.9466990000001</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
         <v>0</v>
       </c>
       <c r="K20" s="1">
@@ -1901,51 +1986,55 @@
         <v>0</v>
       </c>
       <c r="S20" s="1">
-        <v>400.05330099999992</v>
+        <v>0</v>
       </c>
       <c r="T20" s="1">
-        <v>16083.483391000002</v>
-      </c>
-      <c r="U20">
+        <v>16545.454762199992</v>
+      </c>
+      <c r="U20" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V20" s="1">
         <v>54371</v>
-      </c>
-      <c r="V20">
-        <v>2400</v>
       </c>
       <c r="W20" s="1">
         <f t="shared" si="0"/>
-        <v>16483.536692000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
-        <v>525.50330100000429</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
+        <v>7090.5033010000043</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
         <v>0</v>
       </c>
       <c r="K21" s="1">
@@ -1970,54 +2059,58 @@
         <v>0</v>
       </c>
       <c r="R21" s="1">
-        <v>6565</v>
+        <v>0</v>
       </c>
       <c r="S21" s="1">
         <v>0</v>
       </c>
       <c r="T21" s="1">
-        <v>16483.536692000001</v>
-      </c>
-      <c r="U21">
+        <v>16545.454762199992</v>
+      </c>
+      <c r="U21" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V21" s="1">
         <v>53815</v>
-      </c>
-      <c r="V21">
-        <v>2400</v>
       </c>
       <c r="W21" s="1">
         <f t="shared" si="0"/>
-        <v>9918.5366920000015</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
+        <v>4908.1658010000028</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
         <v>0</v>
       </c>
       <c r="K22" s="1">
@@ -2042,54 +2135,58 @@
         <v>0</v>
       </c>
       <c r="R22" s="1">
-        <v>4908.1658010000028</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1">
         <v>0</v>
       </c>
       <c r="T22" s="1">
-        <v>9918.5366920000015</v>
-      </c>
-      <c r="U22">
+        <v>16545.454762199992</v>
+      </c>
+      <c r="U22" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V22" s="1">
         <v>51609</v>
-      </c>
-      <c r="V22">
-        <v>2400</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" si="0"/>
-        <v>5010.3708909999987</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
-        <v>6978.0613420000009</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
+        <v>6362.3657462500132</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
         <v>0</v>
       </c>
       <c r="K23" s="1">
@@ -2117,51 +2214,55 @@
         <v>0</v>
       </c>
       <c r="S23" s="1">
-        <v>3496.3771429999979</v>
+        <v>2304.5452378000082</v>
       </c>
       <c r="T23" s="1">
-        <v>5010.3708909999987</v>
-      </c>
-      <c r="U23">
+        <v>16545.454762199992</v>
+      </c>
+      <c r="U23" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V23" s="1">
         <v>49698</v>
-      </c>
-      <c r="V23">
-        <v>2400</v>
       </c>
       <c r="W23" s="1">
         <f t="shared" si="0"/>
-        <v>8506.7480339999966</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.5">
+        <v>2880.6815472500093</v>
+      </c>
+      <c r="X23" s="1">
+        <f t="shared" si="1"/>
+        <v>2304.5452378000077</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A24" s="1">
-        <v>7695</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
+        <v>3701.8624999999956</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
         <v>0</v>
       </c>
       <c r="K24" s="1">
@@ -2189,51 +2290,55 @@
         <v>0</v>
       </c>
       <c r="S24" s="1">
-        <v>3993.1375000000044</v>
+        <v>0</v>
       </c>
       <c r="T24" s="1">
-        <v>8506.7480339999966</v>
-      </c>
-      <c r="U24">
+        <v>18850</v>
+      </c>
+      <c r="U24" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V24" s="1">
         <v>48859</v>
-      </c>
-      <c r="V24">
-        <v>2400</v>
       </c>
       <c r="W24" s="1">
         <f t="shared" si="0"/>
-        <v>12499.885534000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A25" s="1">
-        <v>7695</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
+        <v>1344.8855340000009</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
         <v>0</v>
       </c>
       <c r="K25" s="1">
@@ -2261,29 +2366,37 @@
         <v>0</v>
       </c>
       <c r="S25" s="1">
-        <v>6350.1144659999991</v>
+        <v>0</v>
       </c>
       <c r="T25" s="1">
-        <v>12499.885534000001</v>
-      </c>
-      <c r="U25">
+        <v>18850</v>
+      </c>
+      <c r="U25" s="1">
+        <v>2400</v>
+      </c>
+      <c r="V25" s="1">
         <v>46093</v>
-      </c>
-      <c r="V25">
-        <v>2400</v>
       </c>
       <c r="W25" s="1">
         <f t="shared" si="0"/>
-        <v>18850</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.5">
       <c r="T26">
         <v>18850</v>
       </c>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2353,7 +2466,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A2">
-        <v>32037</v>
+        <v>39024</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2404,12 +2517,12 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>5187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A3">
-        <v>30147</v>
+        <v>37134</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2460,12 +2573,12 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>5187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A4">
-        <v>29123.633663366338</v>
+        <v>34020.761704444441</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2516,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>4519.3663366336623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.5">
@@ -2689,7 +2802,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A8">
-        <v>32944</v>
+        <v>27757</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2745,7 +2858,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A9">
-        <v>22876</v>
+        <v>28063</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2796,12 +2909,12 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>5187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A10">
-        <v>32924</v>
+        <v>27737</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2857,7 +2970,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A11">
-        <v>23140</v>
+        <v>28327</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2908,12 +3021,12 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>5187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A12">
-        <v>34878</v>
+        <v>29691</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2969,7 +3082,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A13">
-        <v>26147</v>
+        <v>31334</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3020,12 +3133,12 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>5187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A14">
-        <v>38891</v>
+        <v>33704</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3081,7 +3194,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A15">
-        <v>38168</v>
+        <v>32981</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3137,7 +3250,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A16">
-        <v>36264</v>
+        <v>31077</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3193,7 +3306,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A17">
-        <v>35564</v>
+        <v>30377</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3249,7 +3362,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A18">
-        <v>36071</v>
+        <v>30884</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3305,7 +3418,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A19">
-        <v>37668.732673267325</v>
+        <v>33817</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3361,7 +3474,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A20">
-        <v>31729</v>
+        <v>36916</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3412,12 +3525,12 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>5187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A21">
-        <v>32628</v>
+        <v>37815</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3468,12 +3581,12 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>5187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A22">
-        <v>41445</v>
+        <v>36258</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3529,7 +3642,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A23">
-        <v>34479.633663366338</v>
+        <v>33812</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3585,7 +3698,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A24">
-        <v>29452</v>
+        <v>34639</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3636,12 +3749,12 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <v>5187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A25">
-        <v>30235</v>
+        <v>35422</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3692,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>5187</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3705,7 +3818,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O25"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3767,40 +3880,40 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>457.9</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
         <v>4446</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
         <v>1039.0999999999999</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
         <v>1512</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>0</v>
       </c>
       <c r="M2">
@@ -3823,40 +3936,40 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>457.9</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
         <v>4446</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
         <v>923.1</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
         <v>1537</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>0</v>
       </c>
       <c r="M3">
@@ -3879,40 +3992,40 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>457.9</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
         <v>4446</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
         <v>573.1</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
         <v>1626</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>0</v>
       </c>
       <c r="M4">
@@ -3935,40 +4048,40 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>457.9</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>4446</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
         <v>214.10000000000002</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
         <v>1719</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>0</v>
       </c>
       <c r="M5">
@@ -3991,40 +4104,40 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>457.9</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
         <v>4350.1000000000004</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
         <v>1775</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>0</v>
       </c>
       <c r="M6">
@@ -4047,40 +4160,40 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>457.9</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
         <v>4300.1000000000004</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
         <v>1853</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>0</v>
       </c>
       <c r="M7">
@@ -4103,40 +4216,40 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>457.9</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
         <v>4446</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
         <v>68.100000000000023</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
         <v>1868</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>0</v>
       </c>
       <c r="M8">
@@ -4159,40 +4272,40 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>457.9</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
         <v>4446</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
         <v>310.10000000000002</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
         <v>1855</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <v>0</v>
       </c>
       <c r="M9">
@@ -4215,40 +4328,40 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>457.9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
         <v>4446</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
         <v>644.90599999999961</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
         <v>1782</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>0.19400000000000001</v>
       </c>
       <c r="M10">
@@ -4271,40 +4384,40 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>457.9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
         <v>4446</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
         <v>1177.7535478499999</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
         <v>1550</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>1.34645215</v>
       </c>
       <c r="M11">
@@ -4327,40 +4440,40 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>457.9</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
         <v>4446</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
         <v>1538.9382617200004</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
         <v>1561</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <v>3.1617382799999998</v>
       </c>
       <c r="M12">
@@ -4383,40 +4496,40 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>457.9</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
         <v>4446</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
         <v>1895.3585478500004</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
         <v>1624</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>4.7414521499999998</v>
       </c>
       <c r="M13">
@@ -4439,40 +4552,40 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>457.9</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
         <v>4446</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
         <v>2116.9451425799994</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
         <v>1637</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <v>5.1548574199999999</v>
       </c>
       <c r="M14">
@@ -4495,40 +4608,40 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>457.9</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
         <v>4446</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
         <v>2176.4670956999994</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
         <v>1695</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="1">
         <v>4.6329042999999999</v>
       </c>
       <c r="M15">
@@ -4551,40 +4664,40 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>457.9</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
         <v>4446</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
         <v>2050.1045478499996</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
         <v>1800</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="1">
         <v>2.9954521500000002</v>
       </c>
       <c r="M16">
@@ -4607,40 +4720,40 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>457.9</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
         <v>4446</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
         <v>2119.0722617200004</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
         <v>1855</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="1">
         <v>1.0277382800000001</v>
       </c>
       <c r="M17">
@@ -4663,40 +4776,40 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>457.9</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
         <v>4446</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
         <v>2418.0491904299993</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
         <v>1925</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="1">
         <v>5.0809569999999998E-2</v>
       </c>
       <c r="M18">
@@ -4719,40 +4832,40 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>457.9</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
         <v>4446</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
         <v>3352.1</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
         <v>1993</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="1">
         <v>0</v>
       </c>
       <c r="M19">
@@ -4775,40 +4888,40 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>457.9</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
         <v>4446</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
         <v>3187.1</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
         <v>2029</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="1">
         <v>0</v>
       </c>
       <c r="M20">
@@ -4831,40 +4944,40 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>457.9</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
         <v>4446</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
         <v>2938.1</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
         <v>2006</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="1">
         <v>0</v>
       </c>
       <c r="M21">
@@ -4887,40 +5000,40 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>457.9</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
         <v>4446</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
         <v>2575.1</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
         <v>2002</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="1">
         <v>0</v>
       </c>
       <c r="M22">
@@ -4943,40 +5056,40 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>457.9</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
         <v>4446</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
         <v>2009.1</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
         <v>2019</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="1">
         <v>0</v>
       </c>
       <c r="M23">
@@ -4999,40 +5112,40 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>457.9</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
         <v>4446</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
         <v>1486.1</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
         <v>2002</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="1">
         <v>0</v>
       </c>
       <c r="M24">
@@ -5055,40 +5168,40 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>457.9</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
         <v>4446</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
         <v>817.1</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
         <v>1971</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="1">
         <v>0</v>
       </c>
       <c r="M25">
@@ -5119,7 +5232,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
@@ -5136,7 +5251,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2">
-        <v>15.714285714285715</v>
+        <v>19.642857142857146</v>
       </c>
       <c r="B2">
         <v>15.714285714285715</v>
@@ -5147,7 +5262,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3">
-        <v>15.714285714285715</v>
+        <v>19.642857142857146</v>
       </c>
       <c r="B3">
         <v>15.714285714285715</v>
@@ -5158,7 +5273,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4">
-        <v>15.714285714285715</v>
+        <v>17.460317460317462</v>
       </c>
       <c r="B4">
         <v>15.714285714285715</v>
@@ -5202,7 +5317,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8">
-        <v>15.714285714285715</v>
+        <v>15.714285714285717</v>
       </c>
       <c r="B8">
         <v>15.714285714285715</v>
@@ -5213,7 +5328,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9">
-        <v>15.714285714285715</v>
+        <v>15.714285714285717</v>
       </c>
       <c r="B9">
         <v>15.714285714285715</v>
@@ -5224,7 +5339,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10">
-        <v>15.714285714285715</v>
+        <v>15.714285714285717</v>
       </c>
       <c r="B10">
         <v>15.714285714285715</v>
@@ -5408,7 +5523,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5737,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4663.3927670000012</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -5793,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>6350.2283010000028</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -5849,10 +5964,10 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>6565</v>
+        <v>375.50842720000219</v>
       </c>
       <c r="P8">
-        <v>5187</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -5905,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>6565</v>
+        <v>735.84264079999411</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -5961,10 +6076,10 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>6565</v>
+        <v>1042.6984271999972</v>
       </c>
       <c r="P10">
-        <v>5187</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -6073,10 +6188,10 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>6360.603498000004</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>5187</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -6188,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>5187</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -6244,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>5187</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -6300,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>5187</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -6356,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>5187</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -6412,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>5187</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -6468,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>3851.7326732673246</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -6521,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>400.05330099999992</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -6636,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>5187</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -6689,10 +6804,10 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3496.3771429999979</v>
+        <v>2304.5452378000082</v>
       </c>
       <c r="P23">
-        <v>667.63366336633771</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -6745,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3993.1375000000044</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -6801,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>6350.1144659999991</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -6852,10 +6967,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3">
-        <v>12285</v>
+        <v>14914.807233</v>
       </c>
       <c r="B3">
-        <v>9706.3663366336623</v>
+        <v>14893.366336633662</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6863,10 +6978,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4">
-        <v>5720</v>
+        <v>14391.405266999998</v>
       </c>
       <c r="B4">
-        <v>4519.3663366336623</v>
+        <v>14893.366336633662</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6874,10 +6989,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5">
-        <v>5380.0144659999969</v>
+        <v>14391.405266999998</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>14893.366336633662</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6885,10 +7000,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6">
-        <v>94.457232999997359</v>
+        <v>14391.405266999998</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>14893.366336633662</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -6896,10 +7011,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7">
-        <v>4757.8499999999985</v>
+        <v>14391.405266999998</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>14893.366336633662</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -6907,10 +7022,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8">
-        <v>11108.078301000001</v>
+        <v>14391.405266999998</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>14893.366336633662</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -6918,10 +7033,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9">
-        <v>17673.078301000001</v>
+        <v>14766.9136942</v>
       </c>
       <c r="B9">
-        <v>5187</v>
+        <v>14893.366336633662</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -6929,10 +7044,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10">
-        <v>24238.078301000001</v>
+        <v>15502.756334999995</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>14893.366336633662</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -6940,10 +7055,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11">
-        <v>30803.078301000001</v>
+        <v>16545.454762199992</v>
       </c>
       <c r="B11">
-        <v>5187</v>
+        <v>14893.366336633662</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -6951,10 +7066,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12">
-        <v>29591.808795000004</v>
+        <v>16545.454762199992</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>14893.366336633662</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -6962,10 +7077,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13">
-        <v>35952.412293000009</v>
+        <v>16545.454762199992</v>
       </c>
       <c r="B13">
-        <v>5187</v>
+        <v>14893.366336633662</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -6973,10 +7088,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14">
-        <v>35107.53162200001</v>
+        <v>16545.454762199992</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>14893.366336633662</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -6984,10 +7099,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15">
-        <v>32940.453301000009</v>
+        <v>16545.454762199992</v>
       </c>
       <c r="B15">
-        <v>5187</v>
+        <v>14893.366336633662</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -6995,10 +7110,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16">
-        <v>31525.86892500001</v>
+        <v>16545.454762199992</v>
       </c>
       <c r="B16">
-        <v>10374</v>
+        <v>14893.366336633662</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -7006,10 +7121,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17">
-        <v>29866.625754000008</v>
+        <v>16545.454762199992</v>
       </c>
       <c r="B17">
-        <v>15561</v>
+        <v>14893.366336633662</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -7017,10 +7132,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18">
-        <v>26816.945684000006</v>
+        <v>16545.454762199992</v>
       </c>
       <c r="B18">
-        <v>20748</v>
+        <v>14893.366336633662</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -7028,10 +7143,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19">
-        <v>22648.483391000002</v>
+        <v>16545.454762199992</v>
       </c>
       <c r="B19">
-        <v>25935</v>
+        <v>14893.366336633662</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -7039,10 +7154,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20">
-        <v>16083.483391000002</v>
+        <v>16545.454762199992</v>
       </c>
       <c r="B20">
-        <v>29786.732673267325</v>
+        <v>14893.366336633662</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -7050,10 +7165,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21">
-        <v>16483.536692000001</v>
+        <v>16545.454762199992</v>
       </c>
       <c r="B21">
-        <v>24599.732673267325</v>
+        <v>14893.366336633662</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -7061,10 +7176,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22">
-        <v>9918.5366920000015</v>
+        <v>16545.454762199992</v>
       </c>
       <c r="B22">
-        <v>19412.732673267325</v>
+        <v>14893.366336633662</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -7072,10 +7187,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23">
-        <v>5010.3708909999987</v>
+        <v>16545.454762199992</v>
       </c>
       <c r="B23">
-        <v>24599.732673267325</v>
+        <v>14893.366336633662</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -7083,10 +7198,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24">
-        <v>8506.7480339999966</v>
+        <v>18850</v>
       </c>
       <c r="B24">
-        <v>25267.366336633662</v>
+        <v>14893.366336633662</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -7094,10 +7209,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25">
-        <v>12499.885534000001</v>
+        <v>18850</v>
       </c>
       <c r="B25">
-        <v>20080.366336633662</v>
+        <v>14893.366336633662</v>
       </c>
       <c r="C25">
         <v>0</v>

--- a/Ergebnisse.xlsx
+++ b/Ergebnisse.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Kernenergie</t>
   </si>
@@ -100,6 +100,30 @@
   </si>
   <si>
     <t>Pumpspeicher</t>
+  </si>
+  <si>
+    <t>FR_ex</t>
+  </si>
+  <si>
+    <t>NL_ex</t>
+  </si>
+  <si>
+    <t>PL_ex</t>
+  </si>
+  <si>
+    <t>SE_ex</t>
+  </si>
+  <si>
+    <t>NO_ex</t>
+  </si>
+  <si>
+    <t>Einspeicherung</t>
+  </si>
+  <si>
+    <t>Nachfrage</t>
+  </si>
+  <si>
+    <t>DE_ex</t>
   </si>
 </sst>
 </file>
@@ -451,13 +475,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,8 +548,29 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2">
         <v>7695.0</v>
       </c>
@@ -592,8 +637,29 @@
       <c r="V2">
         <v>5514.660767000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>0.0</v>
+      </c>
+      <c r="X2">
+        <v>3200.0</v>
+      </c>
+      <c r="Y2">
+        <v>1000.0</v>
+      </c>
+      <c r="Z2">
+        <v>0.0</v>
+      </c>
+      <c r="AA2">
+        <v>0.0</v>
+      </c>
+      <c r="AB2">
+        <v>0.0</v>
+      </c>
+      <c r="AC2">
+        <v>42976.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3">
         <v>7695.0</v>
       </c>
@@ -660,8 +726,29 @@
       <c r="V3">
         <v>835.6519660000013</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>0.0</v>
+      </c>
+      <c r="X3">
+        <v>3200.0</v>
+      </c>
+      <c r="Y3">
+        <v>1000.0</v>
+      </c>
+      <c r="Z3">
+        <v>0.0</v>
+      </c>
+      <c r="AA3">
+        <v>0.0</v>
+      </c>
+      <c r="AB3">
+        <v>0.0</v>
+      </c>
+      <c r="AC3">
+        <v>41562.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4">
         <v>7695.0</v>
       </c>
@@ -728,8 +815,29 @@
       <c r="V4">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>0.0</v>
+      </c>
+      <c r="X4">
+        <v>3200.0</v>
+      </c>
+      <c r="Y4">
+        <v>1000.0</v>
+      </c>
+      <c r="Z4">
+        <v>0.0</v>
+      </c>
+      <c r="AA4">
+        <v>0.0</v>
+      </c>
+      <c r="AB4">
+        <v>0.0</v>
+      </c>
+      <c r="AC4">
+        <v>40100.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5">
         <v>7695.0</v>
       </c>
@@ -796,8 +904,29 @@
       <c r="V5">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>0.0</v>
+      </c>
+      <c r="X5">
+        <v>3200.0</v>
+      </c>
+      <c r="Y5">
+        <v>1000.0</v>
+      </c>
+      <c r="Z5">
+        <v>0.0</v>
+      </c>
+      <c r="AA5">
+        <v>0.0</v>
+      </c>
+      <c r="AB5">
+        <v>748.2342136000043</v>
+      </c>
+      <c r="AC5">
+        <v>38883.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6">
         <v>6040.222914583338</v>
       </c>
@@ -864,8 +993,29 @@
       <c r="V6">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>0.0</v>
+      </c>
+      <c r="X6">
+        <v>3200.0</v>
+      </c>
+      <c r="Y6">
+        <v>1000.0</v>
+      </c>
+      <c r="Z6">
+        <v>0.0</v>
+      </c>
+      <c r="AA6">
+        <v>0.0</v>
+      </c>
+      <c r="AB6">
+        <v>1227.5725452666702</v>
+      </c>
+      <c r="AC6">
+        <v>38806.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7">
         <v>2818.9216989999986</v>
       </c>
@@ -932,8 +1082,29 @@
       <c r="V7">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>0.0</v>
+      </c>
+      <c r="X7">
+        <v>3200.0</v>
+      </c>
+      <c r="Y7">
+        <v>1000.0</v>
+      </c>
+      <c r="Z7">
+        <v>0.0</v>
+      </c>
+      <c r="AA7">
+        <v>0.0</v>
+      </c>
+      <c r="AB7">
+        <v>0.0</v>
+      </c>
+      <c r="AC7">
+        <v>38593.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8">
         <v>1004.7644660000005</v>
       </c>
@@ -1000,8 +1171,29 @@
       <c r="V8">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>0.0</v>
+      </c>
+      <c r="X8">
+        <v>3200.0</v>
+      </c>
+      <c r="Y8">
+        <v>1000.0</v>
+      </c>
+      <c r="Z8">
+        <v>0.0</v>
+      </c>
+      <c r="AA8">
+        <v>0.0</v>
+      </c>
+      <c r="AB8">
+        <v>0.0</v>
+      </c>
+      <c r="AC8">
+        <v>38140.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9">
         <v>7695.0</v>
       </c>
@@ -1068,8 +1260,29 @@
       <c r="V9">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>0.0</v>
+      </c>
+      <c r="X9">
+        <v>3200.0</v>
+      </c>
+      <c r="Y9">
+        <v>1000.0</v>
+      </c>
+      <c r="Z9">
+        <v>0.0</v>
+      </c>
+      <c r="AA9">
+        <v>255.33333333333394</v>
+      </c>
+      <c r="AB9">
+        <v>5508.255974133335</v>
+      </c>
+      <c r="AC9">
+        <v>38742.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10">
         <v>716.7547437777812</v>
       </c>
@@ -1136,8 +1349,29 @@
       <c r="V10">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>0.0</v>
+      </c>
+      <c r="X10">
+        <v>3200.0</v>
+      </c>
+      <c r="Y10">
+        <v>1000.0</v>
+      </c>
+      <c r="Z10">
+        <v>0.0</v>
+      </c>
+      <c r="AA10">
+        <v>545.9777777777763</v>
+      </c>
+      <c r="AB10">
+        <v>0.0</v>
+      </c>
+      <c r="AC10">
+        <v>39256.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11">
         <v>3526.6195059999973</v>
       </c>
@@ -1204,8 +1438,29 @@
       <c r="V11">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>0.0</v>
+      </c>
+      <c r="X11">
+        <v>3200.0</v>
+      </c>
+      <c r="Y11">
+        <v>1000.0</v>
+      </c>
+      <c r="Z11">
+        <v>0.0</v>
+      </c>
+      <c r="AA11">
+        <v>841.1999999999987</v>
+      </c>
+      <c r="AB11">
+        <v>0.0</v>
+      </c>
+      <c r="AC11">
+        <v>42018.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12">
         <v>2932.690946444438</v>
       </c>
@@ -1272,8 +1527,29 @@
       <c r="V12">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>0.0</v>
+      </c>
+      <c r="X12">
+        <v>3200.0</v>
+      </c>
+      <c r="Y12">
+        <v>1000.0</v>
+      </c>
+      <c r="Z12">
+        <v>0.0</v>
+      </c>
+      <c r="AA12">
+        <v>124.1444444444403</v>
+      </c>
+      <c r="AB12">
+        <v>0.0</v>
+      </c>
+      <c r="AC12">
+        <v>44533.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13">
         <v>3719.0306710000004</v>
       </c>
@@ -1340,8 +1616,29 @@
       <c r="V13">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>0.0</v>
+      </c>
+      <c r="X13">
+        <v>3200.0</v>
+      </c>
+      <c r="Y13">
+        <v>1000.0</v>
+      </c>
+      <c r="Z13">
+        <v>0.0</v>
+      </c>
+      <c r="AA13">
+        <v>1400.0</v>
+      </c>
+      <c r="AB13">
+        <v>0.0</v>
+      </c>
+      <c r="AC13">
+        <v>47489.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14">
         <v>4129.839432111111</v>
       </c>
@@ -1408,8 +1705,29 @@
       <c r="V14">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>0.0</v>
+      </c>
+      <c r="X14">
+        <v>3200.0</v>
+      </c>
+      <c r="Y14">
+        <v>1000.0</v>
+      </c>
+      <c r="Z14">
+        <v>0.0</v>
+      </c>
+      <c r="AA14">
+        <v>488.6111111111086</v>
+      </c>
+      <c r="AB14">
+        <v>0.0</v>
+      </c>
+      <c r="AC14">
+        <v>49261.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15">
         <v>3372.423264888885</v>
       </c>
@@ -1476,8 +1794,29 @@
       <c r="V15">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>0.0</v>
+      </c>
+      <c r="X15">
+        <v>3200.0</v>
+      </c>
+      <c r="Y15">
+        <v>1000.0</v>
+      </c>
+      <c r="Z15">
+        <v>0.0</v>
+      </c>
+      <c r="AA15">
+        <v>483.6888888888848</v>
+      </c>
+      <c r="AB15">
+        <v>0.0</v>
+      </c>
+      <c r="AC15">
+        <v>48832.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16">
         <v>4337.8061942222275</v>
       </c>
@@ -1544,8 +1883,29 @@
       <c r="V16">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>0.0</v>
+      </c>
+      <c r="X16">
+        <v>3200.0</v>
+      </c>
+      <c r="Y16">
+        <v>1000.0</v>
+      </c>
+      <c r="Z16">
+        <v>0.0</v>
+      </c>
+      <c r="AA16">
+        <v>1204.4130232222242</v>
+      </c>
+      <c r="AB16">
+        <v>0.0</v>
+      </c>
+      <c r="AC16">
+        <v>48595.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17">
         <v>5923.830070000004</v>
       </c>
@@ -1612,8 +1972,29 @@
       <c r="V17">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>0.0</v>
+      </c>
+      <c r="X17">
+        <v>3200.0</v>
+      </c>
+      <c r="Y17">
+        <v>1000.0</v>
+      </c>
+      <c r="Z17">
+        <v>0.0</v>
+      </c>
+      <c r="AA17">
+        <v>1400.0</v>
+      </c>
+      <c r="AB17">
+        <v>0.0</v>
+      </c>
+      <c r="AC17">
+        <v>48826.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18">
         <v>7042.612293000006</v>
       </c>
@@ -1680,8 +2061,29 @@
       <c r="V18">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>0.0</v>
+      </c>
+      <c r="X18">
+        <v>3200.0</v>
+      </c>
+      <c r="Y18">
+        <v>1000.0</v>
+      </c>
+      <c r="Z18">
+        <v>0.0</v>
+      </c>
+      <c r="AA18">
+        <v>1400.0</v>
+      </c>
+      <c r="AB18">
+        <v>0.0</v>
+      </c>
+      <c r="AC18">
+        <v>50626.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19">
         <v>7695.0</v>
       </c>
@@ -1748,8 +2150,29 @@
       <c r="V19">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>0.0</v>
+      </c>
+      <c r="X19">
+        <v>3200.0</v>
+      </c>
+      <c r="Y19">
+        <v>1000.0</v>
+      </c>
+      <c r="Z19">
+        <v>0.0</v>
+      </c>
+      <c r="AA19">
+        <v>1400.0</v>
+      </c>
+      <c r="AB19">
+        <v>0.0</v>
+      </c>
+      <c r="AC19">
+        <v>53793.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20">
         <v>7695.0</v>
       </c>
@@ -1816,8 +2239,29 @@
       <c r="V20">
         <v>669.0966990000015</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>0.0</v>
+      </c>
+      <c r="X20">
+        <v>3200.0</v>
+      </c>
+      <c r="Y20">
+        <v>1000.0</v>
+      </c>
+      <c r="Z20">
+        <v>0.0</v>
+      </c>
+      <c r="AA20">
+        <v>0.0</v>
+      </c>
+      <c r="AB20">
+        <v>0.0</v>
+      </c>
+      <c r="AC20">
+        <v>54371.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21">
         <v>7695.0</v>
       </c>
@@ -1884,8 +2328,29 @@
       <c r="V21">
         <v>464.65330100000574</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>0.0</v>
+      </c>
+      <c r="X21">
+        <v>3200.0</v>
+      </c>
+      <c r="Y21">
+        <v>1000.0</v>
+      </c>
+      <c r="Z21">
+        <v>0.0</v>
+      </c>
+      <c r="AA21">
+        <v>0.0</v>
+      </c>
+      <c r="AB21">
+        <v>0.0</v>
+      </c>
+      <c r="AC21">
+        <v>53815.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22">
         <v>7695.0</v>
       </c>
@@ -1952,8 +2417,29 @@
       <c r="V22">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22">
+        <v>0.0</v>
+      </c>
+      <c r="X22">
+        <v>3200.0</v>
+      </c>
+      <c r="Y22">
+        <v>1000.0</v>
+      </c>
+      <c r="Z22">
+        <v>0.0</v>
+      </c>
+      <c r="AA22">
+        <v>1312.6841989999957</v>
+      </c>
+      <c r="AB22">
+        <v>0.0</v>
+      </c>
+      <c r="AC22">
+        <v>51609.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23">
         <v>5360.700865666669</v>
       </c>
@@ -2020,8 +2506,29 @@
       <c r="V23">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <v>0.0</v>
+      </c>
+      <c r="X23">
+        <v>3200.0</v>
+      </c>
+      <c r="Y23">
+        <v>1000.0</v>
+      </c>
+      <c r="Z23">
+        <v>0.0</v>
+      </c>
+      <c r="AA23">
+        <v>404.8666666666645</v>
+      </c>
+      <c r="AB23">
+        <v>0.0</v>
+      </c>
+      <c r="AC23">
+        <v>49698.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24">
         <v>6390.979166666661</v>
       </c>
@@ -2088,8 +2595,29 @@
       <c r="V24">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24">
+        <v>0.0</v>
+      </c>
+      <c r="X24">
+        <v>3200.0</v>
+      </c>
+      <c r="Y24">
+        <v>1000.0</v>
+      </c>
+      <c r="Z24">
+        <v>0.0</v>
+      </c>
+      <c r="AA24">
+        <v>1214.9666666666637</v>
+      </c>
+      <c r="AB24">
+        <v>0.0</v>
+      </c>
+      <c r="AC24">
+        <v>48859.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25">
         <v>4081.0577562222225</v>
       </c>
@@ -2155,6 +2683,27 @@
       </c>
       <c r="V25">
         <v>0.0</v>
+      </c>
+      <c r="W25">
+        <v>0.0</v>
+      </c>
+      <c r="X25">
+        <v>3200.0</v>
+      </c>
+      <c r="Y25">
+        <v>1000.0</v>
+      </c>
+      <c r="Z25">
+        <v>0.0</v>
+      </c>
+      <c r="AA25">
+        <v>1262.0222222222203</v>
+      </c>
+      <c r="AB25">
+        <v>0.0</v>
+      </c>
+      <c r="AC25">
+        <v>46093.0</v>
       </c>
     </row>
   </sheetData>
@@ -2677,13 +3226,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2750,8 +3299,29 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2">
         <v>54055.0</v>
       </c>
@@ -2818,8 +3388,29 @@
       <c r="V2">
         <v>649.0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>0.0</v>
+      </c>
+      <c r="X2">
+        <v>800.0</v>
+      </c>
+      <c r="Y2">
+        <v>0.0</v>
+      </c>
+      <c r="Z2">
+        <v>0.0</v>
+      </c>
+      <c r="AA2">
+        <v>0.0</v>
+      </c>
+      <c r="AB2">
+        <v>0.0</v>
+      </c>
+      <c r="AC2">
+        <v>62176.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3">
         <v>54055.0</v>
       </c>
@@ -2886,8 +3477,29 @@
       <c r="V3">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>1241.0</v>
+      </c>
+      <c r="X3">
+        <v>800.0</v>
+      </c>
+      <c r="Y3">
+        <v>0.0</v>
+      </c>
+      <c r="Z3">
+        <v>0.0</v>
+      </c>
+      <c r="AA3">
+        <v>0.0</v>
+      </c>
+      <c r="AB3">
+        <v>0.0</v>
+      </c>
+      <c r="AC3">
+        <v>60301.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4">
         <v>54055.0</v>
       </c>
@@ -2954,8 +3566,29 @@
       <c r="V4">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>2015.7061488888867</v>
+      </c>
+      <c r="X4">
+        <v>800.0</v>
+      </c>
+      <c r="Y4">
+        <v>0.0</v>
+      </c>
+      <c r="Z4">
+        <v>0.0</v>
+      </c>
+      <c r="AA4">
+        <v>0.0</v>
+      </c>
+      <c r="AB4">
+        <v>733.0350808888891</v>
+      </c>
+      <c r="AC4">
+        <v>58540.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5">
         <v>48484.19226</v>
       </c>
@@ -3022,8 +3655,29 @@
       <c r="V5">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>0.0</v>
+      </c>
+      <c r="X5">
+        <v>800.0</v>
+      </c>
+      <c r="Y5">
+        <v>0.0</v>
+      </c>
+      <c r="Z5">
+        <v>0.0</v>
+      </c>
+      <c r="AA5">
+        <v>0.0</v>
+      </c>
+      <c r="AB5">
+        <v>596.9538080000038</v>
+      </c>
+      <c r="AC5">
+        <v>55144.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6">
         <v>45533.0</v>
       </c>
@@ -3090,8 +3744,29 @@
       <c r="V6">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>0.0</v>
+      </c>
+      <c r="X6">
+        <v>800.0</v>
+      </c>
+      <c r="Y6">
+        <v>0.0</v>
+      </c>
+      <c r="Z6">
+        <v>0.0</v>
+      </c>
+      <c r="AA6">
+        <v>0.0</v>
+      </c>
+      <c r="AB6">
+        <v>0.0</v>
+      </c>
+      <c r="AC6">
+        <v>52978.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7">
         <v>45015.0</v>
       </c>
@@ -3158,8 +3833,29 @@
       <c r="V7">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>0.0</v>
+      </c>
+      <c r="X7">
+        <v>800.0</v>
+      </c>
+      <c r="Y7">
+        <v>0.0</v>
+      </c>
+      <c r="Z7">
+        <v>0.0</v>
+      </c>
+      <c r="AA7">
+        <v>0.0</v>
+      </c>
+      <c r="AB7">
+        <v>0.0</v>
+      </c>
+      <c r="AC7">
+        <v>52584.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8">
         <v>45237.0</v>
       </c>
@@ -3226,8 +3922,29 @@
       <c r="V8">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>0.0</v>
+      </c>
+      <c r="X8">
+        <v>800.0</v>
+      </c>
+      <c r="Y8">
+        <v>0.0</v>
+      </c>
+      <c r="Z8">
+        <v>0.0</v>
+      </c>
+      <c r="AA8">
+        <v>0.0</v>
+      </c>
+      <c r="AB8">
+        <v>0.0</v>
+      </c>
+      <c r="AC8">
+        <v>52881.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9">
         <v>45543.0</v>
       </c>
@@ -3294,8 +4011,29 @@
       <c r="V9">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>0.0</v>
+      </c>
+      <c r="X9">
+        <v>800.0</v>
+      </c>
+      <c r="Y9">
+        <v>0.0</v>
+      </c>
+      <c r="Z9">
+        <v>0.0</v>
+      </c>
+      <c r="AA9">
+        <v>0.0</v>
+      </c>
+      <c r="AB9">
+        <v>0.0</v>
+      </c>
+      <c r="AC9">
+        <v>53173.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10">
         <v>45217.0</v>
       </c>
@@ -3362,8 +4100,29 @@
       <c r="V10">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>0.0</v>
+      </c>
+      <c r="X10">
+        <v>800.0</v>
+      </c>
+      <c r="Y10">
+        <v>0.0</v>
+      </c>
+      <c r="Z10">
+        <v>0.0</v>
+      </c>
+      <c r="AA10">
+        <v>0.0</v>
+      </c>
+      <c r="AB10">
+        <v>0.0</v>
+      </c>
+      <c r="AC10">
+        <v>52929.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11">
         <v>45807.0</v>
       </c>
@@ -3430,8 +4189,29 @@
       <c r="V11">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>0.0</v>
+      </c>
+      <c r="X11">
+        <v>800.0</v>
+      </c>
+      <c r="Y11">
+        <v>0.0</v>
+      </c>
+      <c r="Z11">
+        <v>0.0</v>
+      </c>
+      <c r="AA11">
+        <v>0.0</v>
+      </c>
+      <c r="AB11">
+        <v>0.0</v>
+      </c>
+      <c r="AC11">
+        <v>53830.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12">
         <v>47171.0</v>
       </c>
@@ -3498,8 +4278,29 @@
       <c r="V12">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>0.0</v>
+      </c>
+      <c r="X12">
+        <v>800.0</v>
+      </c>
+      <c r="Y12">
+        <v>0.0</v>
+      </c>
+      <c r="Z12">
+        <v>0.0</v>
+      </c>
+      <c r="AA12">
+        <v>0.0</v>
+      </c>
+      <c r="AB12">
+        <v>0.0</v>
+      </c>
+      <c r="AC12">
+        <v>55677.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13">
         <v>48814.0</v>
       </c>
@@ -3566,8 +4367,29 @@
       <c r="V13">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>0.0</v>
+      </c>
+      <c r="X13">
+        <v>800.0</v>
+      </c>
+      <c r="Y13">
+        <v>0.0</v>
+      </c>
+      <c r="Z13">
+        <v>0.0</v>
+      </c>
+      <c r="AA13">
+        <v>0.0</v>
+      </c>
+      <c r="AB13">
+        <v>0.0</v>
+      </c>
+      <c r="AC13">
+        <v>57722.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14">
         <v>51184.0</v>
       </c>
@@ -3634,8 +4456,29 @@
       <c r="V14">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>0.0</v>
+      </c>
+      <c r="X14">
+        <v>800.0</v>
+      </c>
+      <c r="Y14">
+        <v>0.0</v>
+      </c>
+      <c r="Z14">
+        <v>0.0</v>
+      </c>
+      <c r="AA14">
+        <v>0.0</v>
+      </c>
+      <c r="AB14">
+        <v>0.0</v>
+      </c>
+      <c r="AC14">
+        <v>60387.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15">
         <v>50461.0</v>
       </c>
@@ -3702,8 +4545,29 @@
       <c r="V15">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>0.0</v>
+      </c>
+      <c r="X15">
+        <v>800.0</v>
+      </c>
+      <c r="Y15">
+        <v>0.0</v>
+      </c>
+      <c r="Z15">
+        <v>0.0</v>
+      </c>
+      <c r="AA15">
+        <v>0.0</v>
+      </c>
+      <c r="AB15">
+        <v>0.0</v>
+      </c>
+      <c r="AC15">
+        <v>60029.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16">
         <v>48557.0</v>
       </c>
@@ -3770,8 +4634,29 @@
       <c r="V16">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>0.0</v>
+      </c>
+      <c r="X16">
+        <v>800.0</v>
+      </c>
+      <c r="Y16">
+        <v>0.0</v>
+      </c>
+      <c r="Z16">
+        <v>0.0</v>
+      </c>
+      <c r="AA16">
+        <v>0.0</v>
+      </c>
+      <c r="AB16">
+        <v>0.0</v>
+      </c>
+      <c r="AC16">
+        <v>57977.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17">
         <v>47857.0</v>
       </c>
@@ -3838,8 +4723,29 @@
       <c r="V17">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>0.0</v>
+      </c>
+      <c r="X17">
+        <v>800.0</v>
+      </c>
+      <c r="Y17">
+        <v>0.0</v>
+      </c>
+      <c r="Z17">
+        <v>0.0</v>
+      </c>
+      <c r="AA17">
+        <v>0.0</v>
+      </c>
+      <c r="AB17">
+        <v>0.0</v>
+      </c>
+      <c r="AC17">
+        <v>56719.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18">
         <v>48364.0</v>
       </c>
@@ -3906,8 +4812,29 @@
       <c r="V18">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>0.0</v>
+      </c>
+      <c r="X18">
+        <v>800.0</v>
+      </c>
+      <c r="Y18">
+        <v>0.0</v>
+      </c>
+      <c r="Z18">
+        <v>0.0</v>
+      </c>
+      <c r="AA18">
+        <v>0.0</v>
+      </c>
+      <c r="AB18">
+        <v>0.0</v>
+      </c>
+      <c r="AC18">
+        <v>56642.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19">
         <v>54055.0</v>
       </c>
@@ -3974,8 +4901,29 @@
       <c r="V19">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>1632.9861111111095</v>
+      </c>
+      <c r="X19">
+        <v>800.0</v>
+      </c>
+      <c r="Y19">
+        <v>0.0</v>
+      </c>
+      <c r="Z19">
+        <v>0.0</v>
+      </c>
+      <c r="AA19">
+        <v>0.0</v>
+      </c>
+      <c r="AB19">
+        <v>900.0111111111064</v>
+      </c>
+      <c r="AC19">
+        <v>59439.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20">
         <v>54055.0</v>
       </c>
@@ -4042,8 +4990,29 @@
       <c r="V20">
         <v>341.0</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>0.0</v>
+      </c>
+      <c r="X20">
+        <v>800.0</v>
+      </c>
+      <c r="Y20">
+        <v>0.0</v>
+      </c>
+      <c r="Z20">
+        <v>0.0</v>
+      </c>
+      <c r="AA20">
+        <v>0.0</v>
+      </c>
+      <c r="AB20">
+        <v>0.0</v>
+      </c>
+      <c r="AC20">
+        <v>62690.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21">
         <v>54055.0</v>
       </c>
@@ -4110,8 +5079,29 @@
       <c r="V21">
         <v>1240.0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>0.0</v>
+      </c>
+      <c r="X21">
+        <v>800.0</v>
+      </c>
+      <c r="Y21">
+        <v>0.0</v>
+      </c>
+      <c r="Z21">
+        <v>0.0</v>
+      </c>
+      <c r="AA21">
+        <v>0.0</v>
+      </c>
+      <c r="AB21">
+        <v>0.0</v>
+      </c>
+      <c r="AC21">
+        <v>63741.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22">
         <v>53738.0</v>
       </c>
@@ -4178,8 +5168,29 @@
       <c r="V22">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22">
+        <v>0.0</v>
+      </c>
+      <c r="X22">
+        <v>800.0</v>
+      </c>
+      <c r="Y22">
+        <v>0.0</v>
+      </c>
+      <c r="Z22">
+        <v>0.0</v>
+      </c>
+      <c r="AA22">
+        <v>0.0</v>
+      </c>
+      <c r="AB22">
+        <v>0.0</v>
+      </c>
+      <c r="AC22">
+        <v>62360.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23">
         <v>51292.0</v>
       </c>
@@ -4246,8 +5257,29 @@
       <c r="V23">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <v>0.0</v>
+      </c>
+      <c r="X23">
+        <v>800.0</v>
+      </c>
+      <c r="Y23">
+        <v>0.0</v>
+      </c>
+      <c r="Z23">
+        <v>0.0</v>
+      </c>
+      <c r="AA23">
+        <v>0.0</v>
+      </c>
+      <c r="AB23">
+        <v>0.0</v>
+      </c>
+      <c r="AC23">
+        <v>60160.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24">
         <v>52119.0</v>
       </c>
@@ -4314,8 +5346,29 @@
       <c r="V24">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24">
+        <v>0.0</v>
+      </c>
+      <c r="X24">
+        <v>800.0</v>
+      </c>
+      <c r="Y24">
+        <v>0.0</v>
+      </c>
+      <c r="Z24">
+        <v>0.0</v>
+      </c>
+      <c r="AA24">
+        <v>0.0</v>
+      </c>
+      <c r="AB24">
+        <v>0.0</v>
+      </c>
+      <c r="AC24">
+        <v>60983.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25">
         <v>52902.0</v>
       </c>
@@ -4381,6 +5434,27 @@
       </c>
       <c r="V25">
         <v>0.0</v>
+      </c>
+      <c r="W25">
+        <v>0.0</v>
+      </c>
+      <c r="X25">
+        <v>800.0</v>
+      </c>
+      <c r="Y25">
+        <v>0.0</v>
+      </c>
+      <c r="Z25">
+        <v>0.0</v>
+      </c>
+      <c r="AA25">
+        <v>0.0</v>
+      </c>
+      <c r="AB25">
+        <v>0.0</v>
+      </c>
+      <c r="AC25">
+        <v>61763.0</v>
       </c>
     </row>
   </sheetData>
@@ -4390,13 +5464,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4463,8 +5537,29 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2">
         <v>457.9</v>
       </c>
@@ -4531,8 +5626,29 @@
       <c r="V2">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>0.0</v>
+      </c>
+      <c r="X2">
+        <v>0.0</v>
+      </c>
+      <c r="Y2">
+        <v>0.0</v>
+      </c>
+      <c r="Z2">
+        <v>0.0</v>
+      </c>
+      <c r="AA2">
+        <v>0.0</v>
+      </c>
+      <c r="AB2">
+        <v>0.0</v>
+      </c>
+      <c r="AC2">
+        <v>11285.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3">
         <v>457.9</v>
       </c>
@@ -4599,8 +5715,29 @@
       <c r="V3">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>0.0</v>
+      </c>
+      <c r="X3">
+        <v>0.0</v>
+      </c>
+      <c r="Y3">
+        <v>0.0</v>
+      </c>
+      <c r="Z3">
+        <v>0.0</v>
+      </c>
+      <c r="AA3">
+        <v>0.0</v>
+      </c>
+      <c r="AB3">
+        <v>0.0</v>
+      </c>
+      <c r="AC3">
+        <v>11194.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4">
         <v>457.9</v>
       </c>
@@ -4667,8 +5804,29 @@
       <c r="V4">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>0.0</v>
+      </c>
+      <c r="X4">
+        <v>0.0</v>
+      </c>
+      <c r="Y4">
+        <v>0.0</v>
+      </c>
+      <c r="Z4">
+        <v>0.0</v>
+      </c>
+      <c r="AA4">
+        <v>0.0</v>
+      </c>
+      <c r="AB4">
+        <v>0.0</v>
+      </c>
+      <c r="AC4">
+        <v>10933.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5">
         <v>457.9</v>
       </c>
@@ -4735,8 +5893,29 @@
       <c r="V5">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>0.0</v>
+      </c>
+      <c r="X5">
+        <v>0.0</v>
+      </c>
+      <c r="Y5">
+        <v>0.0</v>
+      </c>
+      <c r="Z5">
+        <v>0.0</v>
+      </c>
+      <c r="AA5">
+        <v>0.0</v>
+      </c>
+      <c r="AB5">
+        <v>0.0</v>
+      </c>
+      <c r="AC5">
+        <v>10667.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6">
         <v>457.9</v>
       </c>
@@ -4803,8 +5982,29 @@
       <c r="V6">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>0.0</v>
+      </c>
+      <c r="X6">
+        <v>0.0</v>
+      </c>
+      <c r="Y6">
+        <v>0.0</v>
+      </c>
+      <c r="Z6">
+        <v>0.0</v>
+      </c>
+      <c r="AA6">
+        <v>0.0</v>
+      </c>
+      <c r="AB6">
+        <v>0.0</v>
+      </c>
+      <c r="AC6">
+        <v>10413.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7">
         <v>457.9</v>
       </c>
@@ -4871,8 +6071,29 @@
       <c r="V7">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>0.0</v>
+      </c>
+      <c r="X7">
+        <v>0.0</v>
+      </c>
+      <c r="Y7">
+        <v>0.0</v>
+      </c>
+      <c r="Z7">
+        <v>0.0</v>
+      </c>
+      <c r="AA7">
+        <v>0.0</v>
+      </c>
+      <c r="AB7">
+        <v>0.0</v>
+      </c>
+      <c r="AC7">
+        <v>10441.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8">
         <v>457.9</v>
       </c>
@@ -4939,8 +6160,29 @@
       <c r="V8">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>0.0</v>
+      </c>
+      <c r="X8">
+        <v>0.0</v>
+      </c>
+      <c r="Y8">
+        <v>0.0</v>
+      </c>
+      <c r="Z8">
+        <v>0.0</v>
+      </c>
+      <c r="AA8">
+        <v>0.0</v>
+      </c>
+      <c r="AB8">
+        <v>0.0</v>
+      </c>
+      <c r="AC8">
+        <v>10670.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9">
         <v>457.9</v>
       </c>
@@ -5007,8 +6249,29 @@
       <c r="V9">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>0.0</v>
+      </c>
+      <c r="X9">
+        <v>0.0</v>
+      </c>
+      <c r="Y9">
+        <v>0.0</v>
+      </c>
+      <c r="Z9">
+        <v>0.0</v>
+      </c>
+      <c r="AA9">
+        <v>0.0</v>
+      </c>
+      <c r="AB9">
+        <v>0.0</v>
+      </c>
+      <c r="AC9">
+        <v>10899.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10">
         <v>457.9</v>
       </c>
@@ -5075,8 +6338,29 @@
       <c r="V10">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>0.0</v>
+      </c>
+      <c r="X10">
+        <v>0.0</v>
+      </c>
+      <c r="Y10">
+        <v>0.0</v>
+      </c>
+      <c r="Z10">
+        <v>0.0</v>
+      </c>
+      <c r="AA10">
+        <v>0.0</v>
+      </c>
+      <c r="AB10">
+        <v>0.0</v>
+      </c>
+      <c r="AC10">
+        <v>11161.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11">
         <v>457.9</v>
       </c>
@@ -5143,8 +6427,29 @@
       <c r="V11">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>0.0</v>
+      </c>
+      <c r="X11">
+        <v>0.0</v>
+      </c>
+      <c r="Y11">
+        <v>0.0</v>
+      </c>
+      <c r="Z11">
+        <v>0.0</v>
+      </c>
+      <c r="AA11">
+        <v>0.0</v>
+      </c>
+      <c r="AB11">
+        <v>0.0</v>
+      </c>
+      <c r="AC11">
+        <v>11463.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12">
         <v>457.9</v>
       </c>
@@ -5211,8 +6516,29 @@
       <c r="V12">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>0.0</v>
+      </c>
+      <c r="X12">
+        <v>0.0</v>
+      </c>
+      <c r="Y12">
+        <v>0.0</v>
+      </c>
+      <c r="Z12">
+        <v>0.0</v>
+      </c>
+      <c r="AA12">
+        <v>0.0</v>
+      </c>
+      <c r="AB12">
+        <v>0.0</v>
+      </c>
+      <c r="AC12">
+        <v>11837.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13">
         <v>457.9</v>
       </c>
@@ -5279,8 +6605,29 @@
       <c r="V13">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>0.0</v>
+      </c>
+      <c r="X13">
+        <v>0.0</v>
+      </c>
+      <c r="Y13">
+        <v>0.0</v>
+      </c>
+      <c r="Z13">
+        <v>0.0</v>
+      </c>
+      <c r="AA13">
+        <v>0.0</v>
+      </c>
+      <c r="AB13">
+        <v>0.0</v>
+      </c>
+      <c r="AC13">
+        <v>12258.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14">
         <v>457.9</v>
       </c>
@@ -5347,8 +6694,29 @@
       <c r="V14">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>0.0</v>
+      </c>
+      <c r="X14">
+        <v>0.0</v>
+      </c>
+      <c r="Y14">
+        <v>0.0</v>
+      </c>
+      <c r="Z14">
+        <v>0.0</v>
+      </c>
+      <c r="AA14">
+        <v>0.0</v>
+      </c>
+      <c r="AB14">
+        <v>0.0</v>
+      </c>
+      <c r="AC14">
+        <v>12493.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15">
         <v>457.9</v>
       </c>
@@ -5415,8 +6783,29 @@
       <c r="V15">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>0.0</v>
+      </c>
+      <c r="X15">
+        <v>0.0</v>
+      </c>
+      <c r="Y15">
+        <v>0.0</v>
+      </c>
+      <c r="Z15">
+        <v>0.0</v>
+      </c>
+      <c r="AA15">
+        <v>0.0</v>
+      </c>
+      <c r="AB15">
+        <v>0.0</v>
+      </c>
+      <c r="AC15">
+        <v>12610.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16">
         <v>457.9</v>
       </c>
@@ -5483,8 +6872,29 @@
       <c r="V16">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>0.0</v>
+      </c>
+      <c r="X16">
+        <v>0.0</v>
+      </c>
+      <c r="Y16">
+        <v>0.0</v>
+      </c>
+      <c r="Z16">
+        <v>0.0</v>
+      </c>
+      <c r="AA16">
+        <v>0.0</v>
+      </c>
+      <c r="AB16">
+        <v>0.0</v>
+      </c>
+      <c r="AC16">
+        <v>12587.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17">
         <v>457.9</v>
       </c>
@@ -5551,8 +6961,29 @@
       <c r="V17">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>0.0</v>
+      </c>
+      <c r="X17">
+        <v>0.0</v>
+      </c>
+      <c r="Y17">
+        <v>0.0</v>
+      </c>
+      <c r="Z17">
+        <v>0.0</v>
+      </c>
+      <c r="AA17">
+        <v>0.0</v>
+      </c>
+      <c r="AB17">
+        <v>0.0</v>
+      </c>
+      <c r="AC17">
+        <v>12709.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18">
         <v>457.9</v>
       </c>
@@ -5619,8 +7050,29 @@
       <c r="V18">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>0.0</v>
+      </c>
+      <c r="X18">
+        <v>0.0</v>
+      </c>
+      <c r="Y18">
+        <v>0.0</v>
+      </c>
+      <c r="Z18">
+        <v>0.0</v>
+      </c>
+      <c r="AA18">
+        <v>0.0</v>
+      </c>
+      <c r="AB18">
+        <v>0.0</v>
+      </c>
+      <c r="AC18">
+        <v>13077.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19">
         <v>457.9</v>
       </c>
@@ -5687,8 +7139,29 @@
       <c r="V19">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>0.0</v>
+      </c>
+      <c r="X19">
+        <v>0.0</v>
+      </c>
+      <c r="Y19">
+        <v>0.0</v>
+      </c>
+      <c r="Z19">
+        <v>0.0</v>
+      </c>
+      <c r="AA19">
+        <v>0.0</v>
+      </c>
+      <c r="AB19">
+        <v>0.0</v>
+      </c>
+      <c r="AC19">
+        <v>14079.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20">
         <v>457.9</v>
       </c>
@@ -5755,8 +7228,29 @@
       <c r="V20">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>0.0</v>
+      </c>
+      <c r="X20">
+        <v>0.0</v>
+      </c>
+      <c r="Y20">
+        <v>0.0</v>
+      </c>
+      <c r="Z20">
+        <v>0.0</v>
+      </c>
+      <c r="AA20">
+        <v>0.0</v>
+      </c>
+      <c r="AB20">
+        <v>0.0</v>
+      </c>
+      <c r="AC20">
+        <v>13950.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21">
         <v>457.9</v>
       </c>
@@ -5823,8 +7317,29 @@
       <c r="V21">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>0.0</v>
+      </c>
+      <c r="X21">
+        <v>0.0</v>
+      </c>
+      <c r="Y21">
+        <v>0.0</v>
+      </c>
+      <c r="Z21">
+        <v>0.0</v>
+      </c>
+      <c r="AA21">
+        <v>0.0</v>
+      </c>
+      <c r="AB21">
+        <v>0.0</v>
+      </c>
+      <c r="AC21">
+        <v>13678.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22">
         <v>457.9</v>
       </c>
@@ -5891,8 +7406,29 @@
       <c r="V22">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22">
+        <v>0.0</v>
+      </c>
+      <c r="X22">
+        <v>0.0</v>
+      </c>
+      <c r="Y22">
+        <v>0.0</v>
+      </c>
+      <c r="Z22">
+        <v>0.0</v>
+      </c>
+      <c r="AA22">
+        <v>0.0</v>
+      </c>
+      <c r="AB22">
+        <v>0.0</v>
+      </c>
+      <c r="AC22">
+        <v>13311.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23">
         <v>457.9</v>
       </c>
@@ -5959,8 +7495,29 @@
       <c r="V23">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <v>0.0</v>
+      </c>
+      <c r="X23">
+        <v>0.0</v>
+      </c>
+      <c r="Y23">
+        <v>0.0</v>
+      </c>
+      <c r="Z23">
+        <v>0.0</v>
+      </c>
+      <c r="AA23">
+        <v>0.0</v>
+      </c>
+      <c r="AB23">
+        <v>0.0</v>
+      </c>
+      <c r="AC23">
+        <v>12762.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24">
         <v>457.9</v>
       </c>
@@ -6027,8 +7584,29 @@
       <c r="V24">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24">
+        <v>0.0</v>
+      </c>
+      <c r="X24">
+        <v>0.0</v>
+      </c>
+      <c r="Y24">
+        <v>0.0</v>
+      </c>
+      <c r="Z24">
+        <v>0.0</v>
+      </c>
+      <c r="AA24">
+        <v>0.0</v>
+      </c>
+      <c r="AB24">
+        <v>0.0</v>
+      </c>
+      <c r="AC24">
+        <v>12222.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25">
         <v>457.9</v>
       </c>
@@ -6094,6 +7672,27 @@
       </c>
       <c r="V25">
         <v>0.0</v>
+      </c>
+      <c r="W25">
+        <v>0.0</v>
+      </c>
+      <c r="X25">
+        <v>0.0</v>
+      </c>
+      <c r="Y25">
+        <v>0.0</v>
+      </c>
+      <c r="Z25">
+        <v>0.0</v>
+      </c>
+      <c r="AA25">
+        <v>0.0</v>
+      </c>
+      <c r="AB25">
+        <v>0.0</v>
+      </c>
+      <c r="AC25">
+        <v>11522.0</v>
       </c>
     </row>
   </sheetData>
@@ -6103,13 +7702,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6176,8 +7775,29 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2">
         <v>1767.0</v>
       </c>
@@ -6244,8 +7864,29 @@
       <c r="V2">
         <v>800.0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>0.0</v>
+      </c>
+      <c r="X2">
+        <v>0.0</v>
+      </c>
+      <c r="Y2">
+        <v>0.0</v>
+      </c>
+      <c r="Z2">
+        <v>0.0</v>
+      </c>
+      <c r="AA2">
+        <v>0.0</v>
+      </c>
+      <c r="AB2">
+        <v>0.0</v>
+      </c>
+      <c r="AC2">
+        <v>15011.51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3">
         <v>1767.0</v>
       </c>
@@ -6312,8 +7953,29 @@
       <c r="V3">
         <v>800.0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>0.0</v>
+      </c>
+      <c r="X3">
+        <v>0.0</v>
+      </c>
+      <c r="Y3">
+        <v>0.0</v>
+      </c>
+      <c r="Z3">
+        <v>0.0</v>
+      </c>
+      <c r="AA3">
+        <v>0.0</v>
+      </c>
+      <c r="AB3">
+        <v>0.0</v>
+      </c>
+      <c r="AC3">
+        <v>14466.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4">
         <v>1767.0</v>
       </c>
@@ -6380,8 +8042,29 @@
       <c r="V4">
         <v>333.6999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>0.0</v>
+      </c>
+      <c r="X4">
+        <v>0.0</v>
+      </c>
+      <c r="Y4">
+        <v>0.0</v>
+      </c>
+      <c r="Z4">
+        <v>0.0</v>
+      </c>
+      <c r="AA4">
+        <v>0.0</v>
+      </c>
+      <c r="AB4">
+        <v>0.0</v>
+      </c>
+      <c r="AC4">
+        <v>13773.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5">
         <v>1767.0</v>
       </c>
@@ -6448,8 +8131,29 @@
       <c r="V5">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>0.0</v>
+      </c>
+      <c r="X5">
+        <v>0.0</v>
+      </c>
+      <c r="Y5">
+        <v>0.0</v>
+      </c>
+      <c r="Z5">
+        <v>0.0</v>
+      </c>
+      <c r="AA5">
+        <v>0.0</v>
+      </c>
+      <c r="AB5">
+        <v>0.0</v>
+      </c>
+      <c r="AC5">
+        <v>13406.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6">
         <v>1767.0</v>
       </c>
@@ -6516,8 +8220,29 @@
       <c r="V6">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>0.0</v>
+      </c>
+      <c r="X6">
+        <v>0.0</v>
+      </c>
+      <c r="Y6">
+        <v>0.0</v>
+      </c>
+      <c r="Z6">
+        <v>0.0</v>
+      </c>
+      <c r="AA6">
+        <v>0.0</v>
+      </c>
+      <c r="AB6">
+        <v>505.43199999999956</v>
+      </c>
+      <c r="AC6">
+        <v>13216.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7">
         <v>1767.0</v>
       </c>
@@ -6584,8 +8309,29 @@
       <c r="V7">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>0.0</v>
+      </c>
+      <c r="X7">
+        <v>0.0</v>
+      </c>
+      <c r="Y7">
+        <v>0.0</v>
+      </c>
+      <c r="Z7">
+        <v>0.0</v>
+      </c>
+      <c r="AA7">
+        <v>0.0</v>
+      </c>
+      <c r="AB7">
+        <v>770.6159999999988</v>
+      </c>
+      <c r="AC7">
+        <v>13126.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8">
         <v>1767.0</v>
       </c>
@@ -6652,8 +8398,29 @@
       <c r="V8">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>0.0</v>
+      </c>
+      <c r="X8">
+        <v>0.0</v>
+      </c>
+      <c r="Y8">
+        <v>0.0</v>
+      </c>
+      <c r="Z8">
+        <v>0.0</v>
+      </c>
+      <c r="AA8">
+        <v>0.0</v>
+      </c>
+      <c r="AB8">
+        <v>800.0</v>
+      </c>
+      <c r="AC8">
+        <v>13215.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9">
         <v>1767.0</v>
       </c>
@@ -6720,8 +8487,29 @@
       <c r="V9">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>0.0</v>
+      </c>
+      <c r="X9">
+        <v>0.0</v>
+      </c>
+      <c r="Y9">
+        <v>0.0</v>
+      </c>
+      <c r="Z9">
+        <v>0.0</v>
+      </c>
+      <c r="AA9">
+        <v>0.0</v>
+      </c>
+      <c r="AB9">
+        <v>800.0</v>
+      </c>
+      <c r="AC9">
+        <v>13087.74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10">
         <v>1767.0</v>
       </c>
@@ -6788,8 +8576,29 @@
       <c r="V10">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>0.0</v>
+      </c>
+      <c r="X10">
+        <v>0.0</v>
+      </c>
+      <c r="Y10">
+        <v>0.0</v>
+      </c>
+      <c r="Z10">
+        <v>0.0</v>
+      </c>
+      <c r="AA10">
+        <v>0.0</v>
+      </c>
+      <c r="AB10">
+        <v>463.1278029702985</v>
+      </c>
+      <c r="AC10">
+        <v>12992.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11">
         <v>1767.0</v>
       </c>
@@ -6856,8 +8665,29 @@
       <c r="V11">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>0.0</v>
+      </c>
+      <c r="X11">
+        <v>0.0</v>
+      </c>
+      <c r="Y11">
+        <v>0.0</v>
+      </c>
+      <c r="Z11">
+        <v>0.0</v>
+      </c>
+      <c r="AA11">
+        <v>0.0</v>
+      </c>
+      <c r="AB11">
+        <v>800.0</v>
+      </c>
+      <c r="AC11">
+        <v>13425.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12">
         <v>1767.0</v>
       </c>
@@ -6924,8 +8754,29 @@
       <c r="V12">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>0.0</v>
+      </c>
+      <c r="X12">
+        <v>0.0</v>
+      </c>
+      <c r="Y12">
+        <v>0.0</v>
+      </c>
+      <c r="Z12">
+        <v>0.0</v>
+      </c>
+      <c r="AA12">
+        <v>0.0</v>
+      </c>
+      <c r="AB12">
+        <v>0.0</v>
+      </c>
+      <c r="AC12">
+        <v>14082.94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13">
         <v>1767.0</v>
       </c>
@@ -6992,8 +8843,29 @@
       <c r="V13">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>0.0</v>
+      </c>
+      <c r="X13">
+        <v>0.0</v>
+      </c>
+      <c r="Y13">
+        <v>0.0</v>
+      </c>
+      <c r="Z13">
+        <v>0.0</v>
+      </c>
+      <c r="AA13">
+        <v>0.0</v>
+      </c>
+      <c r="AB13">
+        <v>91.55389999999966</v>
+      </c>
+      <c r="AC13">
+        <v>14688.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14">
         <v>1767.0</v>
       </c>
@@ -7060,8 +8932,29 @@
       <c r="V14">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>0.0</v>
+      </c>
+      <c r="X14">
+        <v>0.0</v>
+      </c>
+      <c r="Y14">
+        <v>0.0</v>
+      </c>
+      <c r="Z14">
+        <v>0.0</v>
+      </c>
+      <c r="AA14">
+        <v>0.0</v>
+      </c>
+      <c r="AB14">
+        <v>0.0</v>
+      </c>
+      <c r="AC14">
+        <v>15234.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15">
         <v>1767.0</v>
       </c>
@@ -7128,8 +9021,29 @@
       <c r="V15">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>0.0</v>
+      </c>
+      <c r="X15">
+        <v>0.0</v>
+      </c>
+      <c r="Y15">
+        <v>0.0</v>
+      </c>
+      <c r="Z15">
+        <v>0.0</v>
+      </c>
+      <c r="AA15">
+        <v>0.0</v>
+      </c>
+      <c r="AB15">
+        <v>0.0</v>
+      </c>
+      <c r="AC15">
+        <v>15708.93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16">
         <v>1767.0</v>
       </c>
@@ -7196,8 +9110,29 @@
       <c r="V16">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>0.0</v>
+      </c>
+      <c r="X16">
+        <v>0.0</v>
+      </c>
+      <c r="Y16">
+        <v>0.0</v>
+      </c>
+      <c r="Z16">
+        <v>0.0</v>
+      </c>
+      <c r="AA16">
+        <v>0.0</v>
+      </c>
+      <c r="AB16">
+        <v>0.0</v>
+      </c>
+      <c r="AC16">
+        <v>15801.49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17">
         <v>1767.0</v>
       </c>
@@ -7264,8 +9199,29 @@
       <c r="V17">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>0.0</v>
+      </c>
+      <c r="X17">
+        <v>0.0</v>
+      </c>
+      <c r="Y17">
+        <v>0.0</v>
+      </c>
+      <c r="Z17">
+        <v>0.0</v>
+      </c>
+      <c r="AA17">
+        <v>0.0</v>
+      </c>
+      <c r="AB17">
+        <v>0.0</v>
+      </c>
+      <c r="AC17">
+        <v>15845.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18">
         <v>1767.0</v>
       </c>
@@ -7332,8 +9288,29 @@
       <c r="V18">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>0.0</v>
+      </c>
+      <c r="X18">
+        <v>0.0</v>
+      </c>
+      <c r="Y18">
+        <v>0.0</v>
+      </c>
+      <c r="Z18">
+        <v>0.0</v>
+      </c>
+      <c r="AA18">
+        <v>0.0</v>
+      </c>
+      <c r="AB18">
+        <v>0.0</v>
+      </c>
+      <c r="AC18">
+        <v>16939.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19">
         <v>1767.0</v>
       </c>
@@ -7400,8 +9377,29 @@
       <c r="V19">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>0.0</v>
+      </c>
+      <c r="X19">
+        <v>0.0</v>
+      </c>
+      <c r="Y19">
+        <v>0.0</v>
+      </c>
+      <c r="Z19">
+        <v>0.0</v>
+      </c>
+      <c r="AA19">
+        <v>0.0</v>
+      </c>
+      <c r="AB19">
+        <v>0.0</v>
+      </c>
+      <c r="AC19">
+        <v>17255.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20">
         <v>1767.0</v>
       </c>
@@ -7468,8 +9466,29 @@
       <c r="V20">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>0.0</v>
+      </c>
+      <c r="X20">
+        <v>0.0</v>
+      </c>
+      <c r="Y20">
+        <v>0.0</v>
+      </c>
+      <c r="Z20">
+        <v>0.0</v>
+      </c>
+      <c r="AA20">
+        <v>0.0</v>
+      </c>
+      <c r="AB20">
+        <v>0.0</v>
+      </c>
+      <c r="AC20">
+        <v>17339.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21">
         <v>1767.0</v>
       </c>
@@ -7536,8 +9555,29 @@
       <c r="V21">
         <v>800.0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>0.0</v>
+      </c>
+      <c r="X21">
+        <v>0.0</v>
+      </c>
+      <c r="Y21">
+        <v>0.0</v>
+      </c>
+      <c r="Z21">
+        <v>0.0</v>
+      </c>
+      <c r="AA21">
+        <v>0.0</v>
+      </c>
+      <c r="AB21">
+        <v>0.0</v>
+      </c>
+      <c r="AC21">
+        <v>17350.24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22">
         <v>1767.0</v>
       </c>
@@ -7604,8 +9644,29 @@
       <c r="V22">
         <v>800.0</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22">
+        <v>0.0</v>
+      </c>
+      <c r="X22">
+        <v>0.0</v>
+      </c>
+      <c r="Y22">
+        <v>0.0</v>
+      </c>
+      <c r="Z22">
+        <v>0.0</v>
+      </c>
+      <c r="AA22">
+        <v>0.0</v>
+      </c>
+      <c r="AB22">
+        <v>0.0</v>
+      </c>
+      <c r="AC22">
+        <v>16974.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23">
         <v>1767.0</v>
       </c>
@@ -7672,8 +9733,29 @@
       <c r="V23">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <v>0.0</v>
+      </c>
+      <c r="X23">
+        <v>0.0</v>
+      </c>
+      <c r="Y23">
+        <v>0.0</v>
+      </c>
+      <c r="Z23">
+        <v>0.0</v>
+      </c>
+      <c r="AA23">
+        <v>0.0</v>
+      </c>
+      <c r="AB23">
+        <v>0.0</v>
+      </c>
+      <c r="AC23">
+        <v>16279.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24">
         <v>1767.0</v>
       </c>
@@ -7740,8 +9822,29 @@
       <c r="V24">
         <v>697.029702970297</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24">
+        <v>0.0</v>
+      </c>
+      <c r="X24">
+        <v>0.0</v>
+      </c>
+      <c r="Y24">
+        <v>0.0</v>
+      </c>
+      <c r="Z24">
+        <v>0.0</v>
+      </c>
+      <c r="AA24">
+        <v>0.0</v>
+      </c>
+      <c r="AB24">
+        <v>0.0</v>
+      </c>
+      <c r="AC24">
+        <v>15653.89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25">
         <v>1767.0</v>
       </c>
@@ -7807,6 +9910,27 @@
       </c>
       <c r="V25">
         <v>0.0</v>
+      </c>
+      <c r="W25">
+        <v>0.0</v>
+      </c>
+      <c r="X25">
+        <v>0.0</v>
+      </c>
+      <c r="Y25">
+        <v>0.0</v>
+      </c>
+      <c r="Z25">
+        <v>0.0</v>
+      </c>
+      <c r="AA25">
+        <v>0.0</v>
+      </c>
+      <c r="AB25">
+        <v>0.0</v>
+      </c>
+      <c r="AC25">
+        <v>14593.1</v>
       </c>
     </row>
   </sheetData>
@@ -7816,13 +9940,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7889,8 +10013,29 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2">
         <v>2943.3500000000004</v>
       </c>
@@ -7957,8 +10102,29 @@
       <c r="V2">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>450.0</v>
+      </c>
+      <c r="X2">
+        <v>0.0</v>
+      </c>
+      <c r="Y2">
+        <v>0.0</v>
+      </c>
+      <c r="Z2">
+        <v>0.0</v>
+      </c>
+      <c r="AA2">
+        <v>1200.0</v>
+      </c>
+      <c r="AB2">
+        <v>0.0</v>
+      </c>
+      <c r="AC2">
+        <v>14597.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3">
         <v>2611.938888888889</v>
       </c>
@@ -8025,8 +10191,29 @@
       <c r="V3">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>450.0</v>
+      </c>
+      <c r="X3">
+        <v>0.0</v>
+      </c>
+      <c r="Y3">
+        <v>0.0</v>
+      </c>
+      <c r="Z3">
+        <v>0.0</v>
+      </c>
+      <c r="AA3">
+        <v>969.5888888888876</v>
+      </c>
+      <c r="AB3">
+        <v>0.0</v>
+      </c>
+      <c r="AC3">
+        <v>14375.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4">
         <v>1193.3500000000004</v>
       </c>
@@ -8093,8 +10280,29 @@
       <c r="V4">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>0.0</v>
+      </c>
+      <c r="X4">
+        <v>0.0</v>
+      </c>
+      <c r="Y4">
+        <v>0.0</v>
+      </c>
+      <c r="Z4">
+        <v>0.0</v>
+      </c>
+      <c r="AA4">
+        <v>0.0</v>
+      </c>
+      <c r="AB4">
+        <v>0.0</v>
+      </c>
+      <c r="AC4">
+        <v>14153.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5">
         <v>1013.3500000000004</v>
       </c>
@@ -8161,8 +10369,29 @@
       <c r="V5">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>0.0</v>
+      </c>
+      <c r="X5">
+        <v>0.0</v>
+      </c>
+      <c r="Y5">
+        <v>0.0</v>
+      </c>
+      <c r="Z5">
+        <v>0.0</v>
+      </c>
+      <c r="AA5">
+        <v>0.0</v>
+      </c>
+      <c r="AB5">
+        <v>0.0</v>
+      </c>
+      <c r="AC5">
+        <v>13896.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6">
         <v>1111.3499999999995</v>
       </c>
@@ -8229,8 +10458,29 @@
       <c r="V6">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>0.0</v>
+      </c>
+      <c r="X6">
+        <v>0.0</v>
+      </c>
+      <c r="Y6">
+        <v>0.0</v>
+      </c>
+      <c r="Z6">
+        <v>0.0</v>
+      </c>
+      <c r="AA6">
+        <v>0.0</v>
+      </c>
+      <c r="AB6">
+        <v>0.0</v>
+      </c>
+      <c r="AC6">
+        <v>13955.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7">
         <v>1323.3500000000004</v>
       </c>
@@ -8297,8 +10547,29 @@
       <c r="V7">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>0.0</v>
+      </c>
+      <c r="X7">
+        <v>0.0</v>
+      </c>
+      <c r="Y7">
+        <v>0.0</v>
+      </c>
+      <c r="Z7">
+        <v>0.0</v>
+      </c>
+      <c r="AA7">
+        <v>0.0</v>
+      </c>
+      <c r="AB7">
+        <v>0.0</v>
+      </c>
+      <c r="AC7">
+        <v>14166.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8">
         <v>1567.3500000000004</v>
       </c>
@@ -8365,8 +10636,29 @@
       <c r="V8">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>0.0</v>
+      </c>
+      <c r="X8">
+        <v>0.0</v>
+      </c>
+      <c r="Y8">
+        <v>0.0</v>
+      </c>
+      <c r="Z8">
+        <v>0.0</v>
+      </c>
+      <c r="AA8">
+        <v>0.0</v>
+      </c>
+      <c r="AB8">
+        <v>0.0</v>
+      </c>
+      <c r="AC8">
+        <v>14352.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9">
         <v>1958.3499999999995</v>
       </c>
@@ -8433,8 +10725,29 @@
       <c r="V9">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>0.0</v>
+      </c>
+      <c r="X9">
+        <v>0.0</v>
+      </c>
+      <c r="Y9">
+        <v>0.0</v>
+      </c>
+      <c r="Z9">
+        <v>0.0</v>
+      </c>
+      <c r="AA9">
+        <v>0.0</v>
+      </c>
+      <c r="AB9">
+        <v>0.0</v>
+      </c>
+      <c r="AC9">
+        <v>14807.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10">
         <v>2085.3500000000004</v>
       </c>
@@ -8501,8 +10814,29 @@
       <c r="V10">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>0.0</v>
+      </c>
+      <c r="X10">
+        <v>0.0</v>
+      </c>
+      <c r="Y10">
+        <v>0.0</v>
+      </c>
+      <c r="Z10">
+        <v>0.0</v>
+      </c>
+      <c r="AA10">
+        <v>0.0</v>
+      </c>
+      <c r="AB10">
+        <v>0.0</v>
+      </c>
+      <c r="AC10">
+        <v>15064.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11">
         <v>2469.3500000000004</v>
       </c>
@@ -8569,8 +10903,29 @@
       <c r="V11">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>0.0</v>
+      </c>
+      <c r="X11">
+        <v>0.0</v>
+      </c>
+      <c r="Y11">
+        <v>0.0</v>
+      </c>
+      <c r="Z11">
+        <v>0.0</v>
+      </c>
+      <c r="AA11">
+        <v>0.0</v>
+      </c>
+      <c r="AB11">
+        <v>0.0</v>
+      </c>
+      <c r="AC11">
+        <v>15492.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12">
         <v>3829.3500000000004</v>
       </c>
@@ -8637,8 +10992,29 @@
       <c r="V12">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>0.0</v>
+      </c>
+      <c r="X12">
+        <v>0.0</v>
+      </c>
+      <c r="Y12">
+        <v>0.0</v>
+      </c>
+      <c r="Z12">
+        <v>0.0</v>
+      </c>
+      <c r="AA12">
+        <v>1200.0</v>
+      </c>
+      <c r="AB12">
+        <v>0.0</v>
+      </c>
+      <c r="AC12">
+        <v>15810.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13">
         <v>2763.8499999999967</v>
       </c>
@@ -8705,8 +11081,29 @@
       <c r="V13">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>0.0</v>
+      </c>
+      <c r="X13">
+        <v>0.0</v>
+      </c>
+      <c r="Y13">
+        <v>0.0</v>
+      </c>
+      <c r="Z13">
+        <v>0.0</v>
+      </c>
+      <c r="AA13">
+        <v>126.49999999999613</v>
+      </c>
+      <c r="AB13">
+        <v>0.0</v>
+      </c>
+      <c r="AC13">
+        <v>16045.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14">
         <v>3874.3500000000004</v>
       </c>
@@ -8773,8 +11170,29 @@
       <c r="V14">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>0.0</v>
+      </c>
+      <c r="X14">
+        <v>0.0</v>
+      </c>
+      <c r="Y14">
+        <v>0.0</v>
+      </c>
+      <c r="Z14">
+        <v>0.0</v>
+      </c>
+      <c r="AA14">
+        <v>1200.0</v>
+      </c>
+      <c r="AB14">
+        <v>0.0</v>
+      </c>
+      <c r="AC14">
+        <v>16254.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15">
         <v>3825.3500000000004</v>
       </c>
@@ -8841,8 +11259,29 @@
       <c r="V15">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>0.0</v>
+      </c>
+      <c r="X15">
+        <v>0.0</v>
+      </c>
+      <c r="Y15">
+        <v>0.0</v>
+      </c>
+      <c r="Z15">
+        <v>0.0</v>
+      </c>
+      <c r="AA15">
+        <v>1200.0</v>
+      </c>
+      <c r="AB15">
+        <v>0.0</v>
+      </c>
+      <c r="AC15">
+        <v>16321.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16">
         <v>4176.349999999999</v>
       </c>
@@ -8909,8 +11348,29 @@
       <c r="V16">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>0.0</v>
+      </c>
+      <c r="X16">
+        <v>0.0</v>
+      </c>
+      <c r="Y16">
+        <v>0.0</v>
+      </c>
+      <c r="Z16">
+        <v>0.0</v>
+      </c>
+      <c r="AA16">
+        <v>1200.0</v>
+      </c>
+      <c r="AB16">
+        <v>0.0</v>
+      </c>
+      <c r="AC16">
+        <v>16874.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17">
         <v>4632.35</v>
       </c>
@@ -8977,8 +11437,29 @@
       <c r="V17">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>0.0</v>
+      </c>
+      <c r="X17">
+        <v>0.0</v>
+      </c>
+      <c r="Y17">
+        <v>0.0</v>
+      </c>
+      <c r="Z17">
+        <v>0.0</v>
+      </c>
+      <c r="AA17">
+        <v>1200.0</v>
+      </c>
+      <c r="AB17">
+        <v>0.0</v>
+      </c>
+      <c r="AC17">
+        <v>17436.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18">
         <v>5316.35</v>
       </c>
@@ -9045,8 +11526,29 @@
       <c r="V18">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>0.0</v>
+      </c>
+      <c r="X18">
+        <v>0.0</v>
+      </c>
+      <c r="Y18">
+        <v>0.0</v>
+      </c>
+      <c r="Z18">
+        <v>0.0</v>
+      </c>
+      <c r="AA18">
+        <v>1200.0</v>
+      </c>
+      <c r="AB18">
+        <v>0.0</v>
+      </c>
+      <c r="AC18">
+        <v>18173.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19">
         <v>5921.35</v>
       </c>
@@ -9113,8 +11615,29 @@
       <c r="V19">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>450.0</v>
+      </c>
+      <c r="X19">
+        <v>0.0</v>
+      </c>
+      <c r="Y19">
+        <v>0.0</v>
+      </c>
+      <c r="Z19">
+        <v>0.0</v>
+      </c>
+      <c r="AA19">
+        <v>1200.0</v>
+      </c>
+      <c r="AB19">
+        <v>0.0</v>
+      </c>
+      <c r="AC19">
+        <v>18388.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20">
         <v>5705.35</v>
       </c>
@@ -9181,8 +11704,29 @@
       <c r="V20">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>450.0</v>
+      </c>
+      <c r="X20">
+        <v>0.0</v>
+      </c>
+      <c r="Y20">
+        <v>0.0</v>
+      </c>
+      <c r="Z20">
+        <v>0.0</v>
+      </c>
+      <c r="AA20">
+        <v>1200.0</v>
+      </c>
+      <c r="AB20">
+        <v>0.0</v>
+      </c>
+      <c r="AC20">
+        <v>18200.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21">
         <v>5194.35</v>
       </c>
@@ -9249,8 +11793,29 @@
       <c r="V21">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>450.0</v>
+      </c>
+      <c r="X21">
+        <v>0.0</v>
+      </c>
+      <c r="Y21">
+        <v>0.0</v>
+      </c>
+      <c r="Z21">
+        <v>0.0</v>
+      </c>
+      <c r="AA21">
+        <v>1200.0</v>
+      </c>
+      <c r="AB21">
+        <v>0.0</v>
+      </c>
+      <c r="AC21">
+        <v>17725.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22">
         <v>4425.35</v>
       </c>
@@ -9317,8 +11882,29 @@
       <c r="V22">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22">
+        <v>0.0</v>
+      </c>
+      <c r="X22">
+        <v>0.0</v>
+      </c>
+      <c r="Y22">
+        <v>0.0</v>
+      </c>
+      <c r="Z22">
+        <v>0.0</v>
+      </c>
+      <c r="AA22">
+        <v>1200.0</v>
+      </c>
+      <c r="AB22">
+        <v>0.0</v>
+      </c>
+      <c r="AC22">
+        <v>17424.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23">
         <v>4038.3499999999995</v>
       </c>
@@ -9385,8 +11971,29 @@
       <c r="V23">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <v>0.0</v>
+      </c>
+      <c r="X23">
+        <v>0.0</v>
+      </c>
+      <c r="Y23">
+        <v>0.0</v>
+      </c>
+      <c r="Z23">
+        <v>0.0</v>
+      </c>
+      <c r="AA23">
+        <v>1200.0</v>
+      </c>
+      <c r="AB23">
+        <v>0.0</v>
+      </c>
+      <c r="AC23">
+        <v>17030.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24">
         <v>2569.3500000000004</v>
       </c>
@@ -9453,8 +12060,29 @@
       <c r="V24">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24">
+        <v>0.0</v>
+      </c>
+      <c r="X24">
+        <v>0.0</v>
+      </c>
+      <c r="Y24">
+        <v>0.0</v>
+      </c>
+      <c r="Z24">
+        <v>0.0</v>
+      </c>
+      <c r="AA24">
+        <v>0.0</v>
+      </c>
+      <c r="AB24">
+        <v>0.0</v>
+      </c>
+      <c r="AC24">
+        <v>16745.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25">
         <v>2187.3500000000004</v>
       </c>
@@ -9520,6 +12148,27 @@
       </c>
       <c r="V25">
         <v>0.0</v>
+      </c>
+      <c r="W25">
+        <v>0.0</v>
+      </c>
+      <c r="X25">
+        <v>0.0</v>
+      </c>
+      <c r="Y25">
+        <v>0.0</v>
+      </c>
+      <c r="Z25">
+        <v>0.0</v>
+      </c>
+      <c r="AA25">
+        <v>0.0</v>
+      </c>
+      <c r="AB25">
+        <v>0.0</v>
+      </c>
+      <c r="AC25">
+        <v>16335.0</v>
       </c>
     </row>
   </sheetData>
@@ -9529,13 +12178,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9602,8 +12251,29 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2">
         <v>0.0</v>
       </c>
@@ -9670,8 +12340,29 @@
       <c r="V2">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>1232.979999999999</v>
+      </c>
+      <c r="X2">
+        <v>0.0</v>
+      </c>
+      <c r="Y2">
+        <v>0.0</v>
+      </c>
+      <c r="Z2">
+        <v>0.0</v>
+      </c>
+      <c r="AA2">
+        <v>0.0</v>
+      </c>
+      <c r="AB2">
+        <v>0.0</v>
+      </c>
+      <c r="AC2">
+        <v>16008.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3">
         <v>0.0</v>
       </c>
@@ -9738,8 +12429,29 @@
       <c r="V3">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>1400.0</v>
+      </c>
+      <c r="X3">
+        <v>0.0</v>
+      </c>
+      <c r="Y3">
+        <v>0.0</v>
+      </c>
+      <c r="Z3">
+        <v>0.0</v>
+      </c>
+      <c r="AA3">
+        <v>0.0</v>
+      </c>
+      <c r="AB3">
+        <v>0.0</v>
+      </c>
+      <c r="AC3">
+        <v>15623.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4">
         <v>0.0</v>
       </c>
@@ -9806,8 +12518,29 @@
       <c r="V4">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>0.0</v>
+      </c>
+      <c r="X4">
+        <v>0.0</v>
+      </c>
+      <c r="Y4">
+        <v>0.0</v>
+      </c>
+      <c r="Z4">
+        <v>0.0</v>
+      </c>
+      <c r="AA4">
+        <v>0.0</v>
+      </c>
+      <c r="AB4">
+        <v>367.8719999999994</v>
+      </c>
+      <c r="AC4">
+        <v>15705.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5">
         <v>0.0</v>
       </c>
@@ -9874,8 +12607,29 @@
       <c r="V5">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>0.0</v>
+      </c>
+      <c r="X5">
+        <v>0.0</v>
+      </c>
+      <c r="Y5">
+        <v>0.0</v>
+      </c>
+      <c r="Z5">
+        <v>0.0</v>
+      </c>
+      <c r="AA5">
+        <v>0.0</v>
+      </c>
+      <c r="AB5">
+        <v>401.08799999999883</v>
+      </c>
+      <c r="AC5">
+        <v>15643.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6">
         <v>0.0</v>
       </c>
@@ -9942,8 +12696,29 @@
       <c r="V6">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>0.0</v>
+      </c>
+      <c r="X6">
+        <v>0.0</v>
+      </c>
+      <c r="Y6">
+        <v>0.0</v>
+      </c>
+      <c r="Z6">
+        <v>0.0</v>
+      </c>
+      <c r="AA6">
+        <v>0.0</v>
+      </c>
+      <c r="AB6">
+        <v>389.5119999999995</v>
+      </c>
+      <c r="AC6">
+        <v>15611.51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7">
         <v>0.0</v>
       </c>
@@ -10010,8 +12785,29 @@
       <c r="V7">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>0.0</v>
+      </c>
+      <c r="X7">
+        <v>0.0</v>
+      </c>
+      <c r="Y7">
+        <v>0.0</v>
+      </c>
+      <c r="Z7">
+        <v>0.0</v>
+      </c>
+      <c r="AA7">
+        <v>0.0</v>
+      </c>
+      <c r="AB7">
+        <v>273.80799999999954</v>
+      </c>
+      <c r="AC7">
+        <v>15727.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8">
         <v>0.0</v>
       </c>
@@ -10078,8 +12874,29 @@
       <c r="V8">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>0.0</v>
+      </c>
+      <c r="X8">
+        <v>0.0</v>
+      </c>
+      <c r="Y8">
+        <v>0.0</v>
+      </c>
+      <c r="Z8">
+        <v>0.0</v>
+      </c>
+      <c r="AA8">
+        <v>0.0</v>
+      </c>
+      <c r="AB8">
+        <v>30.159999999999513</v>
+      </c>
+      <c r="AC8">
+        <v>16040.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9">
         <v>0.0</v>
       </c>
@@ -10146,8 +12963,29 @@
       <c r="V9">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>0.0</v>
+      </c>
+      <c r="X9">
+        <v>0.0</v>
+      </c>
+      <c r="Y9">
+        <v>0.0</v>
+      </c>
+      <c r="Z9">
+        <v>0.0</v>
+      </c>
+      <c r="AA9">
+        <v>0.0</v>
+      </c>
+      <c r="AB9">
+        <v>0.0</v>
+      </c>
+      <c r="AC9">
+        <v>16324.51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10">
         <v>0.0</v>
       </c>
@@ -10214,8 +13052,29 @@
       <c r="V10">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>0.0</v>
+      </c>
+      <c r="X10">
+        <v>0.0</v>
+      </c>
+      <c r="Y10">
+        <v>0.0</v>
+      </c>
+      <c r="Z10">
+        <v>0.0</v>
+      </c>
+      <c r="AA10">
+        <v>0.0</v>
+      </c>
+      <c r="AB10">
+        <v>0.0</v>
+      </c>
+      <c r="AC10">
+        <v>16654.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11">
         <v>0.0</v>
       </c>
@@ -10282,8 +13141,29 @@
       <c r="V11">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>0.0</v>
+      </c>
+      <c r="X11">
+        <v>0.0</v>
+      </c>
+      <c r="Y11">
+        <v>0.0</v>
+      </c>
+      <c r="Z11">
+        <v>0.0</v>
+      </c>
+      <c r="AA11">
+        <v>0.0</v>
+      </c>
+      <c r="AB11">
+        <v>0.0</v>
+      </c>
+      <c r="AC11">
+        <v>16935.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12">
         <v>0.0</v>
       </c>
@@ -10350,8 +13230,29 @@
       <c r="V12">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>0.0</v>
+      </c>
+      <c r="X12">
+        <v>0.0</v>
+      </c>
+      <c r="Y12">
+        <v>0.0</v>
+      </c>
+      <c r="Z12">
+        <v>0.0</v>
+      </c>
+      <c r="AA12">
+        <v>0.0</v>
+      </c>
+      <c r="AB12">
+        <v>0.0</v>
+      </c>
+      <c r="AC12">
+        <v>17369.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13">
         <v>0.0</v>
       </c>
@@ -10418,8 +13319,29 @@
       <c r="V13">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>0.0</v>
+      </c>
+      <c r="X13">
+        <v>0.0</v>
+      </c>
+      <c r="Y13">
+        <v>0.0</v>
+      </c>
+      <c r="Z13">
+        <v>0.0</v>
+      </c>
+      <c r="AA13">
+        <v>0.0</v>
+      </c>
+      <c r="AB13">
+        <v>0.0</v>
+      </c>
+      <c r="AC13">
+        <v>17612.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14">
         <v>0.0</v>
       </c>
@@ -10486,8 +13408,29 @@
       <c r="V14">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>0.0</v>
+      </c>
+      <c r="X14">
+        <v>0.0</v>
+      </c>
+      <c r="Y14">
+        <v>0.0</v>
+      </c>
+      <c r="Z14">
+        <v>0.0</v>
+      </c>
+      <c r="AA14">
+        <v>0.0</v>
+      </c>
+      <c r="AB14">
+        <v>0.0</v>
+      </c>
+      <c r="AC14">
+        <v>17737.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15">
         <v>0.0</v>
       </c>
@@ -10554,8 +13497,29 @@
       <c r="V15">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>0.0</v>
+      </c>
+      <c r="X15">
+        <v>0.0</v>
+      </c>
+      <c r="Y15">
+        <v>0.0</v>
+      </c>
+      <c r="Z15">
+        <v>0.0</v>
+      </c>
+      <c r="AA15">
+        <v>0.0</v>
+      </c>
+      <c r="AB15">
+        <v>0.0</v>
+      </c>
+      <c r="AC15">
+        <v>17688.76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16">
         <v>0.0</v>
       </c>
@@ -10622,8 +13586,29 @@
       <c r="V16">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>0.0</v>
+      </c>
+      <c r="X16">
+        <v>0.0</v>
+      </c>
+      <c r="Y16">
+        <v>0.0</v>
+      </c>
+      <c r="Z16">
+        <v>0.0</v>
+      </c>
+      <c r="AA16">
+        <v>0.0</v>
+      </c>
+      <c r="AB16">
+        <v>248.20937672000218</v>
+      </c>
+      <c r="AC16">
+        <v>18081.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17">
         <v>0.0</v>
       </c>
@@ -10690,8 +13675,29 @@
       <c r="V17">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>0.0</v>
+      </c>
+      <c r="X17">
+        <v>0.0</v>
+      </c>
+      <c r="Y17">
+        <v>0.0</v>
+      </c>
+      <c r="Z17">
+        <v>0.0</v>
+      </c>
+      <c r="AA17">
+        <v>0.0</v>
+      </c>
+      <c r="AB17">
+        <v>81.35199999999895</v>
+      </c>
+      <c r="AC17">
+        <v>18479.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18">
         <v>0.0</v>
       </c>
@@ -10758,8 +13764,29 @@
       <c r="V18">
         <v>61.01999999999839</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>0.0</v>
+      </c>
+      <c r="X18">
+        <v>0.0</v>
+      </c>
+      <c r="Y18">
+        <v>0.0</v>
+      </c>
+      <c r="Z18">
+        <v>0.0</v>
+      </c>
+      <c r="AA18">
+        <v>0.0</v>
+      </c>
+      <c r="AB18">
+        <v>0.0</v>
+      </c>
+      <c r="AC18">
+        <v>18652.51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19">
         <v>0.0</v>
       </c>
@@ -10826,8 +13853,29 @@
       <c r="V19">
         <v>46.23999999999842</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>0.0</v>
+      </c>
+      <c r="X19">
+        <v>0.0</v>
+      </c>
+      <c r="Y19">
+        <v>0.0</v>
+      </c>
+      <c r="Z19">
+        <v>0.0</v>
+      </c>
+      <c r="AA19">
+        <v>0.0</v>
+      </c>
+      <c r="AB19">
+        <v>0.0</v>
+      </c>
+      <c r="AC19">
+        <v>18629.76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20">
         <v>0.0</v>
       </c>
@@ -10894,8 +13942,29 @@
       <c r="V20">
         <v>1163.75</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>0.0</v>
+      </c>
+      <c r="X20">
+        <v>0.0</v>
+      </c>
+      <c r="Y20">
+        <v>0.0</v>
+      </c>
+      <c r="Z20">
+        <v>0.0</v>
+      </c>
+      <c r="AA20">
+        <v>0.0</v>
+      </c>
+      <c r="AB20">
+        <v>0.0</v>
+      </c>
+      <c r="AC20">
+        <v>18492.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21">
         <v>0.0</v>
       </c>
@@ -10962,8 +14031,29 @@
       <c r="V21">
         <v>880.7399999999984</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>0.0</v>
+      </c>
+      <c r="X21">
+        <v>0.0</v>
+      </c>
+      <c r="Y21">
+        <v>0.0</v>
+      </c>
+      <c r="Z21">
+        <v>0.0</v>
+      </c>
+      <c r="AA21">
+        <v>0.0</v>
+      </c>
+      <c r="AB21">
+        <v>0.0</v>
+      </c>
+      <c r="AC21">
+        <v>18192.26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22">
         <v>0.0</v>
       </c>
@@ -11030,8 +14120,29 @@
       <c r="V22">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22">
+        <v>0.0</v>
+      </c>
+      <c r="X22">
+        <v>0.0</v>
+      </c>
+      <c r="Y22">
+        <v>0.0</v>
+      </c>
+      <c r="Z22">
+        <v>0.0</v>
+      </c>
+      <c r="AA22">
+        <v>0.0</v>
+      </c>
+      <c r="AB22">
+        <v>359.74862327999676</v>
+      </c>
+      <c r="AC22">
+        <v>18035.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23">
         <v>0.0</v>
       </c>
@@ -11098,8 +14209,29 @@
       <c r="V23">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <v>0.0</v>
+      </c>
+      <c r="X23">
+        <v>0.0</v>
+      </c>
+      <c r="Y23">
+        <v>0.0</v>
+      </c>
+      <c r="Z23">
+        <v>0.0</v>
+      </c>
+      <c r="AA23">
+        <v>0.0</v>
+      </c>
+      <c r="AB23">
+        <v>0.0</v>
+      </c>
+      <c r="AC23">
+        <v>17631.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24">
         <v>0.0</v>
       </c>
@@ -11166,8 +14298,29 @@
       <c r="V24">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24">
+        <v>0.0</v>
+      </c>
+      <c r="X24">
+        <v>0.0</v>
+      </c>
+      <c r="Y24">
+        <v>0.0</v>
+      </c>
+      <c r="Z24">
+        <v>0.0</v>
+      </c>
+      <c r="AA24">
+        <v>0.0</v>
+      </c>
+      <c r="AB24">
+        <v>0.0</v>
+      </c>
+      <c r="AC24">
+        <v>17235.76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25">
         <v>0.0</v>
       </c>
@@ -11233,6 +14386,27 @@
       </c>
       <c r="V25">
         <v>0.0</v>
+      </c>
+      <c r="W25">
+        <v>0.0</v>
+      </c>
+      <c r="X25">
+        <v>0.0</v>
+      </c>
+      <c r="Y25">
+        <v>0.0</v>
+      </c>
+      <c r="Z25">
+        <v>0.0</v>
+      </c>
+      <c r="AA25">
+        <v>0.0</v>
+      </c>
+      <c r="AB25">
+        <v>0.0</v>
+      </c>
+      <c r="AC25">
+        <v>17249.64</v>
       </c>
     </row>
   </sheetData>

--- a/Ergebnisse.xlsx
+++ b/Ergebnisse.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Kernenergie</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Nachfrage</t>
+  </si>
+  <si>
+    <t>Strompreis</t>
   </si>
   <si>
     <t>DE_ex</t>
@@ -475,13 +478,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,8 +572,11 @@
       <c r="AC1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>7695.0</v>
       </c>
@@ -658,8 +664,11 @@
       <c r="AC2">
         <v>42976.0</v>
       </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AD2">
+        <v>19.642857142857146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>7695.0</v>
       </c>
@@ -747,8 +756,11 @@
       <c r="AC3">
         <v>41562.0</v>
       </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AD3">
+        <v>19.642857142857146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>7695.0</v>
       </c>
@@ -836,8 +848,11 @@
       <c r="AC4">
         <v>40100.0</v>
       </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AD4">
+        <v>17.460317460317466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>7695.0</v>
       </c>
@@ -925,8 +940,11 @@
       <c r="AC5">
         <v>38883.0</v>
       </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AD5">
+        <v>15.714285714285717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>6040.222914583338</v>
       </c>
@@ -1014,8 +1032,11 @@
       <c r="AC6">
         <v>38806.0</v>
       </c>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AD6">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>2818.9216989999986</v>
       </c>
@@ -1103,8 +1124,11 @@
       <c r="AC7">
         <v>38593.0</v>
       </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AD7">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>1004.7644660000005</v>
       </c>
@@ -1192,8 +1216,11 @@
       <c r="AC8">
         <v>38140.0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AD8">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9">
         <v>7695.0</v>
       </c>
@@ -1281,8 +1308,11 @@
       <c r="AC9">
         <v>38742.0</v>
       </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AD9">
+        <v>15.714285714285717</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10">
         <v>716.7547437777812</v>
       </c>
@@ -1370,8 +1400,11 @@
       <c r="AC10">
         <v>39256.0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AD10">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11">
         <v>3526.6195059999973</v>
       </c>
@@ -1459,8 +1492,11 @@
       <c r="AC11">
         <v>42018.0</v>
       </c>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AD11">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>2932.690946444438</v>
       </c>
@@ -1548,8 +1584,11 @@
       <c r="AC12">
         <v>44533.0</v>
       </c>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AD12">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13">
         <v>3719.0306710000004</v>
       </c>
@@ -1637,8 +1676,11 @@
       <c r="AC13">
         <v>47489.0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AD13">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14">
         <v>4129.839432111111</v>
       </c>
@@ -1726,8 +1768,11 @@
       <c r="AC14">
         <v>49261.0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AD14">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15">
         <v>3372.423264888885</v>
       </c>
@@ -1815,8 +1860,11 @@
       <c r="AC15">
         <v>48832.0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AD15">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16">
         <v>4337.8061942222275</v>
       </c>
@@ -1904,8 +1952,11 @@
       <c r="AC16">
         <v>48595.0</v>
       </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AD16">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17">
         <v>5923.830070000004</v>
       </c>
@@ -1993,8 +2044,11 @@
       <c r="AC17">
         <v>48826.0</v>
       </c>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AD17">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18">
         <v>7042.612293000006</v>
       </c>
@@ -2082,8 +2136,11 @@
       <c r="AC18">
         <v>50626.0</v>
       </c>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AD18">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19">
         <v>7695.0</v>
       </c>
@@ -2171,8 +2228,11 @@
       <c r="AC19">
         <v>53793.0</v>
       </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AD19">
+        <v>17.460317460317466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20">
         <v>7695.0</v>
       </c>
@@ -2260,8 +2320,11 @@
       <c r="AC20">
         <v>54371.0</v>
       </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AD20">
+        <v>19.642857142857146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21">
         <v>7695.0</v>
       </c>
@@ -2349,8 +2412,11 @@
       <c r="AC21">
         <v>53815.0</v>
       </c>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AD21">
+        <v>19.642857142857146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22">
         <v>7695.0</v>
       </c>
@@ -2438,8 +2504,11 @@
       <c r="AC22">
         <v>51609.0</v>
       </c>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AD22">
+        <v>15.714285714285717</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23">
         <v>5360.700865666669</v>
       </c>
@@ -2527,8 +2596,11 @@
       <c r="AC23">
         <v>49698.0</v>
       </c>
-    </row>
-    <row r="24" spans="1:29">
+      <c r="AD23">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24">
         <v>6390.979166666661</v>
       </c>
@@ -2616,8 +2688,11 @@
       <c r="AC24">
         <v>48859.0</v>
       </c>
-    </row>
-    <row r="25" spans="1:29">
+      <c r="AD24">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25">
         <v>4081.0577562222225</v>
       </c>
@@ -2704,6 +2779,9 @@
       </c>
       <c r="AC25">
         <v>46093.0</v>
+      </c>
+      <c r="AD25">
+        <v>15.714285714285715</v>
       </c>
     </row>
   </sheetData>
@@ -3226,13 +3304,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3300,7 +3378,7 @@
         <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X1" t="s">
         <v>23</v>
@@ -3320,8 +3398,11 @@
       <c r="AC1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>54055.0</v>
       </c>
@@ -3409,8 +3490,11 @@
       <c r="AC2">
         <v>62176.0</v>
       </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AD2">
+        <v>19.642857142857146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>54055.0</v>
       </c>
@@ -3498,8 +3582,11 @@
       <c r="AC3">
         <v>60301.0</v>
       </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AD3">
+        <v>17.67857142857143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>54055.0</v>
       </c>
@@ -3587,8 +3674,11 @@
       <c r="AC4">
         <v>58540.0</v>
       </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AD4">
+        <v>15.714285714285717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>48484.19226</v>
       </c>
@@ -3676,8 +3766,11 @@
       <c r="AC5">
         <v>55144.0</v>
       </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AD5">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>45533.0</v>
       </c>
@@ -3765,8 +3858,11 @@
       <c r="AC6">
         <v>52978.0</v>
       </c>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AD6">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>45015.0</v>
       </c>
@@ -3854,8 +3950,11 @@
       <c r="AC7">
         <v>52584.0</v>
       </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AD7">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>45237.0</v>
       </c>
@@ -3943,8 +4042,11 @@
       <c r="AC8">
         <v>52881.0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AD8">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9">
         <v>45543.0</v>
       </c>
@@ -4032,8 +4134,11 @@
       <c r="AC9">
         <v>53173.0</v>
       </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AD9">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10">
         <v>45217.0</v>
       </c>
@@ -4121,8 +4226,11 @@
       <c r="AC10">
         <v>52929.0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AD10">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11">
         <v>45807.0</v>
       </c>
@@ -4210,8 +4318,11 @@
       <c r="AC11">
         <v>53830.0</v>
       </c>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AD11">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>47171.0</v>
       </c>
@@ -4299,8 +4410,11 @@
       <c r="AC12">
         <v>55677.0</v>
       </c>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AD12">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13">
         <v>48814.0</v>
       </c>
@@ -4388,8 +4502,11 @@
       <c r="AC13">
         <v>57722.0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AD13">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14">
         <v>51184.0</v>
       </c>
@@ -4477,8 +4594,11 @@
       <c r="AC14">
         <v>60387.0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AD14">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15">
         <v>50461.0</v>
       </c>
@@ -4566,8 +4686,11 @@
       <c r="AC15">
         <v>60029.0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AD15">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16">
         <v>48557.0</v>
       </c>
@@ -4655,8 +4778,11 @@
       <c r="AC16">
         <v>57977.0</v>
       </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AD16">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17">
         <v>47857.0</v>
       </c>
@@ -4744,8 +4870,11 @@
       <c r="AC17">
         <v>56719.0</v>
       </c>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AD17">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18">
         <v>48364.0</v>
       </c>
@@ -4833,8 +4962,11 @@
       <c r="AC18">
         <v>56642.0</v>
       </c>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AD18">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19">
         <v>54055.0</v>
       </c>
@@ -4922,8 +5054,11 @@
       <c r="AC19">
         <v>59439.0</v>
       </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AD19">
+        <v>15.714285714285717</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20">
         <v>54055.0</v>
       </c>
@@ -5011,8 +5146,11 @@
       <c r="AC20">
         <v>62690.0</v>
       </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AD20">
+        <v>19.642857142857146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21">
         <v>54055.0</v>
       </c>
@@ -5100,8 +5238,11 @@
       <c r="AC21">
         <v>63741.0</v>
       </c>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AD21">
+        <v>19.642857142857146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22">
         <v>53738.0</v>
       </c>
@@ -5189,8 +5330,11 @@
       <c r="AC22">
         <v>62360.0</v>
       </c>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AD22">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23">
         <v>51292.0</v>
       </c>
@@ -5278,8 +5422,11 @@
       <c r="AC23">
         <v>60160.0</v>
       </c>
-    </row>
-    <row r="24" spans="1:29">
+      <c r="AD23">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24">
         <v>52119.0</v>
       </c>
@@ -5367,8 +5514,11 @@
       <c r="AC24">
         <v>60983.0</v>
       </c>
-    </row>
-    <row r="25" spans="1:29">
+      <c r="AD24">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25">
         <v>52902.0</v>
       </c>
@@ -5455,6 +5605,9 @@
       </c>
       <c r="AC25">
         <v>61763.0</v>
+      </c>
+      <c r="AD25">
+        <v>15.714285714285715</v>
       </c>
     </row>
   </sheetData>
@@ -5464,13 +5617,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5538,7 +5691,7 @@
         <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X1" t="s">
         <v>22</v>
@@ -5558,8 +5711,11 @@
       <c r="AC1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>457.9</v>
       </c>
@@ -5647,8 +5803,11 @@
       <c r="AC2">
         <v>11285.0</v>
       </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AD2">
+        <v>126.59607843137255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>457.9</v>
       </c>
@@ -5736,8 +5895,11 @@
       <c r="AC3">
         <v>11194.0</v>
       </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AD3">
+        <v>126.59607843137255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>457.9</v>
       </c>
@@ -5825,8 +5987,11 @@
       <c r="AC4">
         <v>10933.0</v>
       </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AD4">
+        <v>126.59607843137255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>457.9</v>
       </c>
@@ -5914,8 +6079,11 @@
       <c r="AC5">
         <v>10667.0</v>
       </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AD5">
+        <v>126.59607843137255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>457.9</v>
       </c>
@@ -6003,8 +6171,11 @@
       <c r="AC6">
         <v>10413.0</v>
       </c>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AD6">
+        <v>126.59607843137255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>457.9</v>
       </c>
@@ -6092,8 +6263,11 @@
       <c r="AC7">
         <v>10441.0</v>
       </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AD7">
+        <v>126.59607843137255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>457.9</v>
       </c>
@@ -6181,8 +6355,11 @@
       <c r="AC8">
         <v>10670.0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AD8">
+        <v>126.59607843137255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9">
         <v>457.9</v>
       </c>
@@ -6270,8 +6447,11 @@
       <c r="AC9">
         <v>10899.0</v>
       </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AD9">
+        <v>126.59607843137255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10">
         <v>457.9</v>
       </c>
@@ -6359,8 +6539,11 @@
       <c r="AC10">
         <v>11161.0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AD10">
+        <v>126.59607843137255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11">
         <v>457.9</v>
       </c>
@@ -6448,8 +6631,11 @@
       <c r="AC11">
         <v>11463.0</v>
       </c>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AD11">
+        <v>126.59607843137255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>457.9</v>
       </c>
@@ -6537,8 +6723,11 @@
       <c r="AC12">
         <v>11837.0</v>
       </c>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AD12">
+        <v>126.59607843137255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13">
         <v>457.9</v>
       </c>
@@ -6626,8 +6815,11 @@
       <c r="AC13">
         <v>12258.0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AD13">
+        <v>126.59607843137255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14">
         <v>457.9</v>
       </c>
@@ -6715,8 +6907,11 @@
       <c r="AC14">
         <v>12493.0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AD14">
+        <v>126.59607843137255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15">
         <v>457.9</v>
       </c>
@@ -6804,8 +6999,11 @@
       <c r="AC15">
         <v>12610.0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AD15">
+        <v>126.59607843137255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16">
         <v>457.9</v>
       </c>
@@ -6893,8 +7091,11 @@
       <c r="AC16">
         <v>12587.0</v>
       </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AD16">
+        <v>126.59607843137255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17">
         <v>457.9</v>
       </c>
@@ -6982,8 +7183,11 @@
       <c r="AC17">
         <v>12709.0</v>
       </c>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AD17">
+        <v>126.59607843137255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18">
         <v>457.9</v>
       </c>
@@ -7071,8 +7275,11 @@
       <c r="AC18">
         <v>13077.0</v>
       </c>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AD18">
+        <v>126.59607843137255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19">
         <v>457.9</v>
       </c>
@@ -7160,8 +7367,11 @@
       <c r="AC19">
         <v>14079.0</v>
       </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AD19">
+        <v>126.59607843137255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20">
         <v>457.9</v>
       </c>
@@ -7249,8 +7459,11 @@
       <c r="AC20">
         <v>13950.0</v>
       </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AD20">
+        <v>126.59607843137255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21">
         <v>457.9</v>
       </c>
@@ -7338,8 +7551,11 @@
       <c r="AC21">
         <v>13678.0</v>
       </c>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AD21">
+        <v>126.59607843137255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22">
         <v>457.9</v>
       </c>
@@ -7427,8 +7643,11 @@
       <c r="AC22">
         <v>13311.0</v>
       </c>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AD22">
+        <v>126.59607843137255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23">
         <v>457.9</v>
       </c>
@@ -7516,8 +7735,11 @@
       <c r="AC23">
         <v>12762.0</v>
       </c>
-    </row>
-    <row r="24" spans="1:29">
+      <c r="AD23">
+        <v>126.59607843137255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24">
         <v>457.9</v>
       </c>
@@ -7605,8 +7827,11 @@
       <c r="AC24">
         <v>12222.0</v>
       </c>
-    </row>
-    <row r="25" spans="1:29">
+      <c r="AD24">
+        <v>126.59607843137255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25">
         <v>457.9</v>
       </c>
@@ -7693,6 +7918,9 @@
       </c>
       <c r="AC25">
         <v>11522.0</v>
+      </c>
+      <c r="AD25">
+        <v>126.59607843137255</v>
       </c>
     </row>
   </sheetData>
@@ -7702,13 +7930,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7776,7 +8004,7 @@
         <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X1" t="s">
         <v>22</v>
@@ -7796,8 +8024,11 @@
       <c r="AC1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>1767.0</v>
       </c>
@@ -7885,8 +8116,11 @@
       <c r="AC2">
         <v>15011.51</v>
       </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AD2">
+        <v>95.46268656716418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>1767.0</v>
       </c>
@@ -7974,8 +8208,11 @@
       <c r="AC3">
         <v>14466.59</v>
       </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AD3">
+        <v>95.46268656716418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>1767.0</v>
       </c>
@@ -8063,8 +8300,11 @@
       <c r="AC4">
         <v>13773.58</v>
       </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AD4">
+        <v>87.65895953757224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>1767.0</v>
       </c>
@@ -8152,8 +8392,11 @@
       <c r="AC5">
         <v>13406.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AD5">
+        <v>70.1271676300578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>1767.0</v>
       </c>
@@ -8241,8 +8484,11 @@
       <c r="AC6">
         <v>13216.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AD6">
+        <v>70.1271676300578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>1767.0</v>
       </c>
@@ -8330,8 +8576,11 @@
       <c r="AC7">
         <v>13126.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AD7">
+        <v>70.1271676300578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>1767.0</v>
       </c>
@@ -8419,8 +8668,11 @@
       <c r="AC8">
         <v>13215.61</v>
       </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AD8">
+        <v>70.1271676300578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9">
         <v>1767.0</v>
       </c>
@@ -8508,8 +8760,11 @@
       <c r="AC9">
         <v>13087.74</v>
       </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AD9">
+        <v>70.1271676300578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10">
         <v>1767.0</v>
       </c>
@@ -8597,8 +8852,11 @@
       <c r="AC10">
         <v>12992.96</v>
       </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AD10">
+        <v>70.1271676300578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11">
         <v>1767.0</v>
       </c>
@@ -8686,8 +8944,11 @@
       <c r="AC11">
         <v>13425.55</v>
       </c>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AD11">
+        <v>70.1271676300578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>1767.0</v>
       </c>
@@ -8775,8 +9036,11 @@
       <c r="AC12">
         <v>14082.94</v>
       </c>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AD12">
+        <v>70.1271676300578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13">
         <v>1767.0</v>
       </c>
@@ -8864,8 +9128,11 @@
       <c r="AC13">
         <v>14688.34</v>
       </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AD13">
+        <v>70.1271676300578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14">
         <v>1767.0</v>
       </c>
@@ -8953,8 +9220,11 @@
       <c r="AC14">
         <v>15234.81</v>
       </c>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AD14">
+        <v>95.46268656716418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15">
         <v>1767.0</v>
       </c>
@@ -9042,8 +9312,11 @@
       <c r="AC15">
         <v>15708.93</v>
       </c>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AD15">
+        <v>95.46268656716418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16">
         <v>1767.0</v>
       </c>
@@ -9131,8 +9404,11 @@
       <c r="AC16">
         <v>15801.49</v>
       </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AD16">
+        <v>95.46268656716418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17">
         <v>1767.0</v>
       </c>
@@ -9220,8 +9496,11 @@
       <c r="AC17">
         <v>15845.06</v>
       </c>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AD17">
+        <v>95.46268656716418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18">
         <v>1767.0</v>
       </c>
@@ -9309,8 +9588,11 @@
       <c r="AC18">
         <v>16939.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AD18">
+        <v>95.46268656716418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19">
         <v>1767.0</v>
       </c>
@@ -9398,8 +9680,11 @@
       <c r="AC19">
         <v>17255.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AD19">
+        <v>95.46268656716418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20">
         <v>1767.0</v>
       </c>
@@ -9487,8 +9772,11 @@
       <c r="AC20">
         <v>17339.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AD20">
+        <v>95.46268656716418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21">
         <v>1767.0</v>
       </c>
@@ -9576,8 +9864,11 @@
       <c r="AC21">
         <v>17350.24</v>
       </c>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AD21">
+        <v>95.46268656716418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22">
         <v>1767.0</v>
       </c>
@@ -9665,8 +9956,11 @@
       <c r="AC22">
         <v>16974.09</v>
       </c>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AD22">
+        <v>95.46268656716418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23">
         <v>1767.0</v>
       </c>
@@ -9754,8 +10048,11 @@
       <c r="AC23">
         <v>16279.04</v>
       </c>
-    </row>
-    <row r="24" spans="1:29">
+      <c r="AD23">
+        <v>95.46268656716418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24">
         <v>1767.0</v>
       </c>
@@ -9843,8 +10140,11 @@
       <c r="AC24">
         <v>15653.89</v>
       </c>
-    </row>
-    <row r="25" spans="1:29">
+      <c r="AD24">
+        <v>95.46268656716418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25">
         <v>1767.0</v>
       </c>
@@ -9931,6 +10231,9 @@
       </c>
       <c r="AC25">
         <v>14593.1</v>
+      </c>
+      <c r="AD25">
+        <v>95.46268656716418</v>
       </c>
     </row>
   </sheetData>
@@ -9940,13 +10243,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10014,7 +10317,7 @@
         <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X1" t="s">
         <v>22</v>
@@ -10034,8 +10337,11 @@
       <c r="AC1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>2943.3500000000004</v>
       </c>
@@ -10123,8 +10429,11 @@
       <c r="AC2">
         <v>14597.0</v>
       </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AD2">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>2611.938888888889</v>
       </c>
@@ -10212,8 +10521,11 @@
       <c r="AC3">
         <v>14375.0</v>
       </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AD3">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>1193.3500000000004</v>
       </c>
@@ -10301,8 +10613,11 @@
       <c r="AC4">
         <v>14153.0</v>
       </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AD4">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>1013.3500000000004</v>
       </c>
@@ -10390,8 +10705,11 @@
       <c r="AC5">
         <v>13896.0</v>
       </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AD5">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>1111.3499999999995</v>
       </c>
@@ -10479,8 +10797,11 @@
       <c r="AC6">
         <v>13955.0</v>
       </c>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AD6">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>1323.3500000000004</v>
       </c>
@@ -10568,8 +10889,11 @@
       <c r="AC7">
         <v>14166.0</v>
       </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AD7">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>1567.3500000000004</v>
       </c>
@@ -10657,8 +10981,11 @@
       <c r="AC8">
         <v>14352.0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AD8">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9">
         <v>1958.3499999999995</v>
       </c>
@@ -10746,8 +11073,11 @@
       <c r="AC9">
         <v>14807.0</v>
       </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AD9">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10">
         <v>2085.3500000000004</v>
       </c>
@@ -10835,8 +11165,11 @@
       <c r="AC10">
         <v>15064.0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AD10">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11">
         <v>2469.3500000000004</v>
       </c>
@@ -10924,8 +11257,11 @@
       <c r="AC11">
         <v>15492.0</v>
       </c>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AD11">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>3829.3500000000004</v>
       </c>
@@ -11013,8 +11349,11 @@
       <c r="AC12">
         <v>15810.0</v>
       </c>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AD12">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13">
         <v>2763.8499999999967</v>
       </c>
@@ -11102,8 +11441,11 @@
       <c r="AC13">
         <v>16045.0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AD13">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14">
         <v>3874.3500000000004</v>
       </c>
@@ -11191,8 +11533,11 @@
       <c r="AC14">
         <v>16254.0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AD14">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15">
         <v>3825.3500000000004</v>
       </c>
@@ -11280,8 +11625,11 @@
       <c r="AC15">
         <v>16321.0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AD15">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16">
         <v>4176.349999999999</v>
       </c>
@@ -11369,8 +11717,11 @@
       <c r="AC16">
         <v>16874.0</v>
       </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AD16">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17">
         <v>4632.35</v>
       </c>
@@ -11458,8 +11809,11 @@
       <c r="AC17">
         <v>17436.0</v>
       </c>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AD17">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18">
         <v>5316.35</v>
       </c>
@@ -11547,8 +11901,11 @@
       <c r="AC18">
         <v>18173.0</v>
       </c>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AD18">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19">
         <v>5921.35</v>
       </c>
@@ -11636,8 +11993,11 @@
       <c r="AC19">
         <v>18388.0</v>
       </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AD19">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20">
         <v>5705.35</v>
       </c>
@@ -11725,8 +12085,11 @@
       <c r="AC20">
         <v>18200.0</v>
       </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AD20">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21">
         <v>5194.35</v>
       </c>
@@ -11814,8 +12177,11 @@
       <c r="AC21">
         <v>17725.0</v>
       </c>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AD21">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22">
         <v>4425.35</v>
       </c>
@@ -11903,8 +12269,11 @@
       <c r="AC22">
         <v>17424.0</v>
       </c>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AD22">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23">
         <v>4038.3499999999995</v>
       </c>
@@ -11992,8 +12361,11 @@
       <c r="AC23">
         <v>17030.0</v>
       </c>
-    </row>
-    <row r="24" spans="1:29">
+      <c r="AD23">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24">
         <v>2569.3500000000004</v>
       </c>
@@ -12081,8 +12453,11 @@
       <c r="AC24">
         <v>16745.0</v>
       </c>
-    </row>
-    <row r="25" spans="1:29">
+      <c r="AD24">
+        <v>15.714285714285715</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25">
         <v>2187.3500000000004</v>
       </c>
@@ -12169,6 +12544,9 @@
       </c>
       <c r="AC25">
         <v>16335.0</v>
+      </c>
+      <c r="AD25">
+        <v>15.714285714285715</v>
       </c>
     </row>
   </sheetData>
@@ -12178,13 +12556,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12252,7 +12630,7 @@
         <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X1" t="s">
         <v>22</v>
@@ -12272,8 +12650,11 @@
       <c r="AC1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>0.0</v>
       </c>
@@ -12361,8 +12742,11 @@
       <c r="AC2">
         <v>16008.04</v>
       </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AD2">
+        <v>17.67857142857143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>0.0</v>
       </c>
@@ -12450,8 +12834,11 @@
       <c r="AC3">
         <v>15623.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AD3">
+        <v>17.460317460317462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>0.0</v>
       </c>
@@ -12539,8 +12926,11 @@
       <c r="AC4">
         <v>15705.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AD4">
+        <v>17.460317460317462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>0.0</v>
       </c>
@@ -12628,8 +13018,11 @@
       <c r="AC5">
         <v>15643.01</v>
       </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AD5">
+        <v>17.460317460317462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>0.0</v>
       </c>
@@ -12717,8 +13110,11 @@
       <c r="AC6">
         <v>15611.51</v>
       </c>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AD6">
+        <v>17.460317460317462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>0.0</v>
       </c>
@@ -12806,8 +13202,11 @@
       <c r="AC7">
         <v>15727.76</v>
       </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AD7">
+        <v>17.460317460317462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>0.0</v>
       </c>
@@ -12895,8 +13294,11 @@
       <c r="AC8">
         <v>16040.26</v>
       </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AD8">
+        <v>17.460317460317462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9">
         <v>0.0</v>
       </c>
@@ -12984,8 +13386,11 @@
       <c r="AC9">
         <v>16324.51</v>
       </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AD9">
+        <v>17.460317460317466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10">
         <v>0.0</v>
       </c>
@@ -13073,8 +13478,11 @@
       <c r="AC10">
         <v>16654.26</v>
       </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AD10">
+        <v>17.460317460317462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11">
         <v>0.0</v>
       </c>
@@ -13162,8 +13570,11 @@
       <c r="AC11">
         <v>16935.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AD11">
+        <v>17.460317460317462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>0.0</v>
       </c>
@@ -13251,8 +13662,11 @@
       <c r="AC12">
         <v>17369.26</v>
       </c>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AD12">
+        <v>17.460317460317462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13">
         <v>0.0</v>
       </c>
@@ -13340,8 +13754,11 @@
       <c r="AC13">
         <v>17612.01</v>
       </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AD13">
+        <v>17.460317460317462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14">
         <v>0.0</v>
       </c>
@@ -13429,8 +13846,11 @@
       <c r="AC14">
         <v>17737.26</v>
       </c>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AD14">
+        <v>17.460317460317462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15">
         <v>0.0</v>
       </c>
@@ -13518,8 +13938,11 @@
       <c r="AC15">
         <v>17688.76</v>
       </c>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AD15">
+        <v>17.460317460317462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16">
         <v>0.0</v>
       </c>
@@ -13607,8 +14030,11 @@
       <c r="AC16">
         <v>18081.01</v>
       </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AD16">
+        <v>17.460317460317462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17">
         <v>0.0</v>
       </c>
@@ -13696,8 +14122,11 @@
       <c r="AC17">
         <v>18479.75</v>
       </c>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AD17">
+        <v>17.460317460317462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18">
         <v>0.0</v>
       </c>
@@ -13785,8 +14214,11 @@
       <c r="AC18">
         <v>18652.51</v>
       </c>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AD18">
+        <v>21.825396825396826</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19">
         <v>0.0</v>
       </c>
@@ -13874,8 +14306,11 @@
       <c r="AC19">
         <v>18629.76</v>
       </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AD19">
+        <v>21.825396825396826</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20">
         <v>0.0</v>
       </c>
@@ -13963,8 +14398,11 @@
       <c r="AC20">
         <v>18492.25</v>
       </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AD20">
+        <v>21.825396825396826</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21">
         <v>0.0</v>
       </c>
@@ -14052,8 +14490,11 @@
       <c r="AC21">
         <v>18192.26</v>
       </c>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AD21">
+        <v>21.825396825396826</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22">
         <v>0.0</v>
       </c>
@@ -14141,8 +14582,11 @@
       <c r="AC22">
         <v>18035.01</v>
       </c>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AD22">
+        <v>17.460317460317462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23">
         <v>0.0</v>
       </c>
@@ -14230,8 +14674,11 @@
       <c r="AC23">
         <v>17631.26</v>
       </c>
-    </row>
-    <row r="24" spans="1:29">
+      <c r="AD23">
+        <v>17.460317460317462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24">
         <v>0.0</v>
       </c>
@@ -14319,8 +14766,11 @@
       <c r="AC24">
         <v>17235.76</v>
       </c>
-    </row>
-    <row r="25" spans="1:29">
+      <c r="AD24">
+        <v>17.460317460317462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25">
         <v>0.0</v>
       </c>
@@ -14407,6 +14857,9 @@
       </c>
       <c r="AC25">
         <v>17249.64</v>
+      </c>
+      <c r="AD25">
+        <v>17.460317460317462</v>
       </c>
     </row>
   </sheetData>
